--- a/census-data/QC Completed 1951.xlsx
+++ b/census-data/QC Completed 1951.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Jason's folder\Schools and Suburbs\GIS\Census\Quality control completed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilyankou/etobicoke/census-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDAB6BA-5F6A-DA4C-8AA4-E9A28FB8C605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28180" windowHeight="15240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map &amp; Data source" sheetId="1" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="67">
   <si>
     <t>CS98-1951-1-1.pdf</t>
   </si>
@@ -231,12 +232,15 @@
   </si>
   <si>
     <t>no data</t>
+  </si>
+  <si>
+    <t>is_metro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -343,7 +347,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -416,6 +420,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="3" builtinId="26"/>
@@ -698,55 +703,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="81.6640625" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -763,7 +768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
@@ -772,7 +777,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="9">
         <v>1</v>
@@ -787,7 +792,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
         <v>22</v>
@@ -802,7 +807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="9">
         <v>46</v>
@@ -817,7 +822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>32</v>
       </c>
@@ -826,7 +831,7 @@
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="14">
         <v>1</v>
@@ -841,7 +846,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="14">
         <v>12</v>
@@ -856,7 +861,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="14" t="s">
         <v>33</v>
@@ -871,7 +876,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="14" t="s">
         <v>34</v>
@@ -886,7 +891,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="14" t="s">
         <v>45</v>
@@ -901,7 +906,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="14">
         <v>50</v>
@@ -916,7 +921,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>49</v>
       </c>
@@ -933,12 +938,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -951,205 +956,208 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AN26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" style="25" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="25"/>
+    <col min="1" max="2" width="18.5" style="25" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="23" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" s="23" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="J1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="L1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="O1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="P1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="Q1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="R1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="S1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="T1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="U1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="V1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="W1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="X1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="Y1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Z1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="AA1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AB1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AC1" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AD1" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="AD1" s="28" t="s">
+      <c r="AE1" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AF1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AG1" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AH1" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="AH1" s="28" t="s">
+      <c r="AI1" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="AI1" s="28" t="s">
+      <c r="AJ1" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="AJ1" s="28" t="s">
+      <c r="AK1" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="AK1" s="28" t="s">
+      <c r="AL1" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="AL1" s="28" t="s">
+      <c r="AM1" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="AM1" s="28" t="s">
+      <c r="AN1" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="22">
         <v>136</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25">
         <v>640</v>
       </c>
-      <c r="C2" s="25">
+      <c r="D2" s="25">
         <v>504</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>17</v>
       </c>
-      <c r="E2" s="25">
+      <c r="F2" s="25">
         <v>3</v>
       </c>
-      <c r="F2" s="25">
+      <c r="G2" s="25">
         <v>10</v>
       </c>
-      <c r="G2" s="25">
+      <c r="H2" s="25">
         <v>2</v>
       </c>
-      <c r="H2" s="25">
+      <c r="I2" s="25">
         <v>27</v>
       </c>
-      <c r="I2" s="25">
+      <c r="J2" s="25">
         <v>17</v>
       </c>
-      <c r="J2" s="25">
+      <c r="K2" s="25">
         <v>3</v>
       </c>
-      <c r="K2" s="25">
+      <c r="L2" s="25">
         <v>16</v>
       </c>
-      <c r="L2" s="25">
+      <c r="M2" s="25">
         <v>6</v>
       </c>
-      <c r="M2" s="25">
+      <c r="N2" s="25">
         <v>5</v>
       </c>
-      <c r="N2" s="25">
+      <c r="O2" s="25">
         <v>1</v>
       </c>
-      <c r="O2" s="25">
+      <c r="P2" s="25">
         <v>29</v>
       </c>
-      <c r="P2" s="25">
+      <c r="Q2" s="25">
         <v>78</v>
       </c>
-      <c r="Q2" s="25">
+      <c r="R2" s="25">
         <v>127</v>
       </c>
-      <c r="R2" s="25">
+      <c r="S2" s="25">
         <v>11</v>
       </c>
-      <c r="S2" s="25">
+      <c r="T2" s="25">
         <v>130</v>
       </c>
-      <c r="T2" s="25">
-        <v>0</v>
-      </c>
       <c r="U2" s="25">
+        <v>0</v>
+      </c>
+      <c r="V2" s="25">
         <v>105</v>
       </c>
-      <c r="V2" s="25">
-        <v>0</v>
-      </c>
       <c r="W2" s="25">
         <v>0</v>
       </c>
@@ -1163,112 +1171,115 @@
         <v>0</v>
       </c>
       <c r="AA2" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="25">
         <v>100</v>
       </c>
-      <c r="AB2" s="25">
+      <c r="AC2" s="25">
         <v>25</v>
       </c>
-      <c r="AC2" s="25">
+      <c r="AD2" s="25">
         <v>34</v>
       </c>
-      <c r="AD2" s="25">
+      <c r="AE2" s="25">
         <v>48</v>
       </c>
-      <c r="AE2" s="25">
+      <c r="AF2" s="25">
         <v>9</v>
       </c>
-      <c r="AF2" s="25">
+      <c r="AG2" s="25">
         <v>4</v>
       </c>
-      <c r="AG2" s="25">
+      <c r="AH2" s="25">
         <v>2016</v>
       </c>
-      <c r="AH2" s="25">
+      <c r="AI2" s="25">
         <v>33</v>
       </c>
-      <c r="AI2" s="25">
+      <c r="AJ2" s="25">
         <v>21</v>
       </c>
-      <c r="AJ2" s="25">
+      <c r="AK2" s="25">
         <v>15</v>
       </c>
-      <c r="AK2" s="25">
-        <v>0</v>
-      </c>
       <c r="AL2" s="25">
         <v>0</v>
       </c>
       <c r="AM2" s="25">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="25">
         <v>1083</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="22">
         <v>137</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>699</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>671</v>
       </c>
-      <c r="D3" s="25">
+      <c r="E3" s="25">
         <v>12</v>
       </c>
-      <c r="E3" s="25">
+      <c r="F3" s="25">
         <v>7</v>
       </c>
-      <c r="F3" s="25">
+      <c r="G3" s="25">
         <v>1</v>
       </c>
-      <c r="G3" s="25">
-        <v>0</v>
-      </c>
       <c r="H3" s="25">
+        <v>0</v>
+      </c>
+      <c r="I3" s="25">
         <v>2</v>
       </c>
-      <c r="I3" s="25">
-        <v>0</v>
-      </c>
       <c r="J3" s="25">
         <v>0</v>
       </c>
       <c r="K3" s="25">
+        <v>0</v>
+      </c>
+      <c r="L3" s="25">
         <v>5</v>
       </c>
-      <c r="L3" s="25">
-        <v>0</v>
-      </c>
       <c r="M3" s="25">
+        <v>0</v>
+      </c>
+      <c r="N3" s="25">
         <v>1</v>
       </c>
-      <c r="N3" s="25">
-        <v>0</v>
-      </c>
       <c r="O3" s="25">
         <v>0</v>
       </c>
       <c r="P3" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="25">
         <v>15</v>
       </c>
-      <c r="Q3" s="25">
+      <c r="R3" s="25">
         <v>193</v>
       </c>
-      <c r="R3" s="25">
+      <c r="S3" s="25">
         <v>16</v>
       </c>
-      <c r="S3" s="25">
+      <c r="T3" s="25">
         <v>185</v>
       </c>
-      <c r="T3" s="25">
-        <v>0</v>
-      </c>
       <c r="U3" s="25">
+        <v>0</v>
+      </c>
+      <c r="V3" s="25">
         <v>175</v>
       </c>
-      <c r="V3" s="25">
-        <v>0</v>
-      </c>
       <c r="W3" s="25">
         <v>0</v>
       </c>
@@ -1282,106 +1293,109 @@
         <v>0</v>
       </c>
       <c r="AA3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="25">
         <v>140</v>
       </c>
-      <c r="AB3" s="25">
+      <c r="AC3" s="25">
         <v>18</v>
       </c>
-      <c r="AC3" s="25">
+      <c r="AD3" s="25">
         <v>28</v>
       </c>
-      <c r="AD3" s="25">
+      <c r="AE3" s="25">
         <v>65</v>
       </c>
-      <c r="AE3" s="25">
+      <c r="AF3" s="25">
         <v>43</v>
       </c>
-      <c r="AF3" s="25">
+      <c r="AG3" s="25">
         <v>18</v>
       </c>
-      <c r="AG3" s="25">
+      <c r="AH3" s="25">
         <v>2583</v>
       </c>
-      <c r="AH3" s="25">
+      <c r="AI3" s="25">
         <v>22</v>
       </c>
-      <c r="AI3" s="25">
+      <c r="AJ3" s="25">
         <v>27</v>
       </c>
-      <c r="AJ3" s="25">
+      <c r="AK3" s="25">
         <v>15</v>
       </c>
-      <c r="AK3" s="25">
-        <v>0</v>
-      </c>
       <c r="AL3" s="25">
         <v>0</v>
       </c>
       <c r="AM3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="25">
         <v>1528</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
         <v>138</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>507</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>402</v>
       </c>
-      <c r="D4" s="25">
+      <c r="E4" s="25">
         <v>17</v>
       </c>
-      <c r="E4" s="25">
+      <c r="F4" s="25">
         <v>18</v>
       </c>
-      <c r="F4" s="25">
+      <c r="G4" s="25">
         <v>13</v>
       </c>
-      <c r="G4" s="25">
-        <v>0</v>
-      </c>
       <c r="H4" s="25">
+        <v>0</v>
+      </c>
+      <c r="I4" s="25">
         <v>21</v>
       </c>
-      <c r="I4" s="25">
+      <c r="J4" s="25">
         <v>7</v>
       </c>
-      <c r="J4" s="25">
+      <c r="K4" s="25">
         <v>11</v>
       </c>
-      <c r="K4" s="25">
+      <c r="L4" s="25">
         <v>4</v>
       </c>
-      <c r="L4" s="25">
+      <c r="M4" s="25">
         <v>1</v>
       </c>
-      <c r="M4" s="25">
+      <c r="N4" s="25">
         <v>5</v>
       </c>
-      <c r="N4" s="25">
+      <c r="O4" s="25">
         <v>9</v>
       </c>
-      <c r="O4" s="25">
+      <c r="P4" s="25">
         <v>3</v>
       </c>
-      <c r="P4" s="25">
+      <c r="Q4" s="25">
         <v>70</v>
       </c>
-      <c r="Q4" s="25">
+      <c r="R4" s="25">
         <v>125</v>
       </c>
-      <c r="R4" s="25">
+      <c r="S4" s="25">
         <v>19</v>
       </c>
-      <c r="S4" s="25">
+      <c r="T4" s="25">
         <v>125</v>
       </c>
-      <c r="T4" s="25">
-        <v>0</v>
-      </c>
       <c r="U4" s="25">
         <v>0</v>
       </c>
@@ -1404,109 +1418,112 @@
         <v>0</v>
       </c>
       <c r="AB4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="25">
         <v>16</v>
       </c>
-      <c r="AC4" s="25">
+      <c r="AD4" s="25">
         <v>27</v>
       </c>
-      <c r="AD4" s="25">
+      <c r="AE4" s="25">
         <v>77</v>
       </c>
-      <c r="AE4" s="25">
+      <c r="AF4" s="25">
         <v>22</v>
       </c>
-      <c r="AF4" s="25">
+      <c r="AG4" s="25">
         <v>7</v>
       </c>
-      <c r="AG4" s="25">
+      <c r="AH4" s="25">
         <v>2364</v>
       </c>
-      <c r="AH4" s="25">
+      <c r="AI4" s="25">
         <v>6</v>
       </c>
-      <c r="AI4" s="25">
+      <c r="AJ4" s="25">
         <v>24</v>
       </c>
-      <c r="AJ4" s="25">
+      <c r="AK4" s="25">
         <v>4</v>
       </c>
-      <c r="AK4" s="25">
-        <v>0</v>
-      </c>
       <c r="AL4" s="25">
         <v>0</v>
       </c>
       <c r="AM4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="25">
         <v>1423</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="22">
         <v>139</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>759</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>632</v>
       </c>
-      <c r="D5" s="25">
+      <c r="E5" s="25">
         <v>13</v>
       </c>
-      <c r="E5" s="25">
+      <c r="F5" s="25">
         <v>12</v>
-      </c>
-      <c r="F5" s="25">
-        <v>1</v>
       </c>
       <c r="G5" s="25">
         <v>1</v>
       </c>
       <c r="H5" s="25">
+        <v>1</v>
+      </c>
+      <c r="I5" s="25">
         <v>18</v>
       </c>
-      <c r="I5" s="25">
+      <c r="J5" s="25">
         <v>22</v>
       </c>
-      <c r="J5" s="25">
+      <c r="K5" s="25">
         <v>3</v>
       </c>
-      <c r="K5" s="25">
+      <c r="L5" s="25">
         <v>10</v>
       </c>
-      <c r="L5" s="25">
+      <c r="M5" s="25">
         <v>5</v>
       </c>
-      <c r="M5" s="25">
+      <c r="N5" s="25">
         <v>16</v>
       </c>
-      <c r="N5" s="25">
-        <v>0</v>
-      </c>
       <c r="O5" s="25">
+        <v>0</v>
+      </c>
+      <c r="P5" s="25">
         <v>22</v>
       </c>
-      <c r="P5" s="25">
+      <c r="Q5" s="25">
         <v>86</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="R5" s="25">
         <v>210</v>
       </c>
-      <c r="R5" s="25">
+      <c r="S5" s="25">
         <v>11</v>
       </c>
-      <c r="S5" s="25">
+      <c r="T5" s="25">
         <v>215</v>
       </c>
-      <c r="T5" s="25">
-        <v>0</v>
-      </c>
       <c r="U5" s="25">
+        <v>0</v>
+      </c>
+      <c r="V5" s="25">
         <v>160</v>
       </c>
-      <c r="V5" s="25">
-        <v>0</v>
-      </c>
       <c r="W5" s="25">
         <v>0</v>
       </c>
@@ -1514,109 +1531,112 @@
         <v>0</v>
       </c>
       <c r="Y5" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="25">
         <v>130</v>
       </c>
-      <c r="Z5" s="25">
-        <v>0</v>
-      </c>
       <c r="AA5" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="25">
         <v>145</v>
       </c>
-      <c r="AB5" s="25">
+      <c r="AC5" s="25">
         <v>25</v>
       </c>
-      <c r="AC5" s="25">
+      <c r="AD5" s="25">
         <v>32</v>
       </c>
-      <c r="AD5" s="25">
+      <c r="AE5" s="25">
         <v>78</v>
       </c>
-      <c r="AE5" s="25">
+      <c r="AF5" s="25">
         <v>35</v>
       </c>
-      <c r="AF5" s="25">
+      <c r="AG5" s="25">
         <v>15</v>
       </c>
-      <c r="AG5" s="25">
+      <c r="AH5" s="25">
         <v>2400</v>
       </c>
-      <c r="AH5" s="25">
+      <c r="AI5" s="25">
         <v>22</v>
       </c>
-      <c r="AI5" s="25">
+      <c r="AJ5" s="25">
         <v>12</v>
       </c>
-      <c r="AJ5" s="25">
+      <c r="AK5" s="25">
         <v>10</v>
-      </c>
-      <c r="AK5" s="25">
-        <v>2</v>
       </c>
       <c r="AL5" s="25">
         <v>2</v>
       </c>
       <c r="AM5" s="25">
+        <v>2</v>
+      </c>
+      <c r="AN5" s="25">
         <v>1167</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>140</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>114</v>
       </c>
-      <c r="C6" s="25">
+      <c r="D6" s="25">
         <v>98</v>
       </c>
-      <c r="D6" s="25">
+      <c r="E6" s="25">
         <v>1</v>
       </c>
-      <c r="E6" s="25">
+      <c r="F6" s="25">
         <v>3</v>
-      </c>
-      <c r="F6" s="25">
-        <v>4</v>
       </c>
       <c r="G6" s="25">
         <v>4</v>
       </c>
       <c r="H6" s="25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6" s="25">
+        <v>0</v>
+      </c>
+      <c r="J6" s="25">
         <v>1</v>
       </c>
-      <c r="J6" s="25">
-        <v>0</v>
-      </c>
       <c r="K6" s="25">
+        <v>0</v>
+      </c>
+      <c r="L6" s="25">
         <v>1</v>
       </c>
-      <c r="L6" s="25">
-        <v>0</v>
-      </c>
       <c r="M6" s="25">
+        <v>0</v>
+      </c>
+      <c r="N6" s="25">
         <v>2</v>
       </c>
-      <c r="N6" s="25">
-        <v>0</v>
-      </c>
       <c r="O6" s="25">
         <v>0</v>
       </c>
       <c r="P6" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="25">
         <v>22</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="R6" s="25">
         <v>30</v>
       </c>
-      <c r="R6" s="25">
+      <c r="S6" s="25">
         <v>3</v>
       </c>
-      <c r="S6" s="25">
-        <v>0</v>
-      </c>
       <c r="T6" s="25">
         <v>0</v>
       </c>
@@ -1641,8 +1661,8 @@
       <c r="AA6" s="25">
         <v>0</v>
       </c>
-      <c r="AB6" s="25" t="s">
-        <v>65</v>
+      <c r="AB6" s="25">
+        <v>0</v>
       </c>
       <c r="AC6" s="25" t="s">
         <v>65</v>
@@ -1650,74 +1670,77 @@
       <c r="AD6" s="25" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AE6" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <v>141</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>595</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>512</v>
       </c>
-      <c r="D7" s="25">
+      <c r="E7" s="25">
         <v>10</v>
       </c>
-      <c r="E7" s="25">
+      <c r="F7" s="25">
         <v>14</v>
       </c>
-      <c r="F7" s="25">
+      <c r="G7" s="25">
         <v>1</v>
       </c>
-      <c r="G7" s="25">
-        <v>0</v>
-      </c>
       <c r="H7" s="25">
+        <v>0</v>
+      </c>
+      <c r="I7" s="25">
         <v>16</v>
       </c>
-      <c r="I7" s="25">
+      <c r="J7" s="25">
         <v>1</v>
       </c>
-      <c r="J7" s="25">
-        <v>0</v>
-      </c>
       <c r="K7" s="25">
+        <v>0</v>
+      </c>
+      <c r="L7" s="25">
         <v>9</v>
       </c>
-      <c r="L7" s="25">
+      <c r="M7" s="25">
         <v>12</v>
       </c>
-      <c r="M7" s="25">
+      <c r="N7" s="25">
         <v>4</v>
       </c>
-      <c r="N7" s="25">
-        <v>0</v>
-      </c>
       <c r="O7" s="25">
+        <v>0</v>
+      </c>
+      <c r="P7" s="25">
         <v>16</v>
       </c>
-      <c r="P7" s="25">
+      <c r="Q7" s="25">
         <v>38</v>
       </c>
-      <c r="Q7" s="25">
+      <c r="R7" s="25">
         <v>156</v>
       </c>
-      <c r="R7" s="25">
+      <c r="S7" s="25">
         <v>13</v>
       </c>
-      <c r="S7" s="25">
+      <c r="T7" s="25">
         <v>150</v>
       </c>
-      <c r="T7" s="25">
-        <v>0</v>
-      </c>
       <c r="U7" s="25">
+        <v>0</v>
+      </c>
+      <c r="V7" s="25">
         <v>125</v>
       </c>
-      <c r="V7" s="25">
-        <v>0</v>
-      </c>
       <c r="W7" s="25">
         <v>0</v>
       </c>
@@ -1731,3772 +1754,3875 @@
         <v>0</v>
       </c>
       <c r="AA7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="25">
         <v>100</v>
       </c>
-      <c r="AB7" s="25">
+      <c r="AC7" s="25">
         <v>8</v>
       </c>
-      <c r="AC7" s="25">
+      <c r="AD7" s="25">
         <v>17</v>
       </c>
-      <c r="AD7" s="25">
+      <c r="AE7" s="25">
         <v>54</v>
       </c>
-      <c r="AE7" s="25">
+      <c r="AF7" s="25">
         <v>40</v>
       </c>
-      <c r="AF7" s="25">
+      <c r="AG7" s="25">
         <v>23</v>
       </c>
-      <c r="AG7" s="25">
+      <c r="AH7" s="25">
         <v>2892</v>
       </c>
-      <c r="AH7" s="25">
+      <c r="AI7" s="25">
         <v>6</v>
       </c>
-      <c r="AI7" s="25">
+      <c r="AJ7" s="25">
         <v>13</v>
       </c>
-      <c r="AJ7" s="25">
+      <c r="AK7" s="25">
         <v>9</v>
       </c>
-      <c r="AK7" s="25">
-        <v>0</v>
-      </c>
       <c r="AL7" s="25">
         <v>0</v>
       </c>
       <c r="AM7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="25">
         <v>1687</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <v>142</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="29">
         <v>2494</v>
       </c>
-      <c r="C8" s="29">
+      <c r="D8" s="29">
         <v>2133</v>
       </c>
-      <c r="D8" s="25">
+      <c r="E8" s="25">
         <v>53</v>
       </c>
-      <c r="E8" s="25">
+      <c r="F8" s="25">
         <v>72</v>
       </c>
-      <c r="F8" s="25">
+      <c r="G8" s="25">
         <v>52</v>
       </c>
-      <c r="G8" s="25">
+      <c r="H8" s="25">
         <v>2</v>
       </c>
-      <c r="H8" s="25">
+      <c r="I8" s="25">
         <v>50</v>
       </c>
-      <c r="I8" s="25">
+      <c r="J8" s="25">
         <v>25</v>
       </c>
-      <c r="J8" s="25">
-        <v>0</v>
-      </c>
       <c r="K8" s="25">
+        <v>0</v>
+      </c>
+      <c r="L8" s="25">
         <v>16</v>
       </c>
-      <c r="L8" s="25">
+      <c r="M8" s="25">
         <v>54</v>
       </c>
-      <c r="M8" s="25">
+      <c r="N8" s="25">
         <v>11</v>
       </c>
-      <c r="N8" s="25">
-        <v>0</v>
-      </c>
       <c r="O8" s="25">
+        <v>0</v>
+      </c>
+      <c r="P8" s="25">
         <v>26</v>
       </c>
-      <c r="P8" s="25">
+      <c r="Q8" s="25">
         <v>256</v>
       </c>
-      <c r="Q8" s="25">
+      <c r="R8" s="25">
         <v>633</v>
       </c>
-      <c r="R8" s="25">
+      <c r="S8" s="25">
         <v>73</v>
       </c>
-      <c r="S8" s="25">
+      <c r="T8" s="25">
         <v>600</v>
       </c>
-      <c r="T8" s="25">
-        <v>0</v>
-      </c>
       <c r="U8" s="25">
+        <v>0</v>
+      </c>
+      <c r="V8" s="25">
         <v>580</v>
       </c>
-      <c r="V8" s="25">
+      <c r="W8" s="25">
         <v>430</v>
       </c>
-      <c r="W8" s="25">
-        <v>0</v>
-      </c>
       <c r="X8" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="25">
         <v>135</v>
       </c>
-      <c r="Y8" s="25">
+      <c r="Z8" s="25">
         <v>345</v>
       </c>
-      <c r="Z8" s="25">
+      <c r="AA8" s="25">
         <v>160</v>
       </c>
-      <c r="AA8" s="25">
+      <c r="AB8" s="25">
         <v>420</v>
       </c>
-      <c r="AB8" s="25">
+      <c r="AC8" s="25">
         <v>34</v>
       </c>
-      <c r="AC8" s="25">
+      <c r="AD8" s="25">
         <v>65</v>
       </c>
-      <c r="AD8" s="25">
+      <c r="AE8" s="25">
         <v>271</v>
       </c>
-      <c r="AE8" s="25">
+      <c r="AF8" s="25">
         <v>171</v>
       </c>
-      <c r="AF8" s="25">
+      <c r="AG8" s="25">
         <v>111</v>
       </c>
-      <c r="AG8" s="25">
+      <c r="AH8" s="25">
         <v>2874</v>
       </c>
-      <c r="AH8" s="25">
+      <c r="AI8" s="25">
         <v>58</v>
       </c>
-      <c r="AI8" s="25">
+      <c r="AJ8" s="25">
         <v>74</v>
       </c>
-      <c r="AJ8" s="25">
+      <c r="AK8" s="25">
         <v>48</v>
       </c>
-      <c r="AK8" s="25">
+      <c r="AL8" s="25">
         <v>3</v>
       </c>
-      <c r="AL8" s="25">
+      <c r="AM8" s="25">
         <v>1</v>
       </c>
-      <c r="AM8" s="25">
+      <c r="AN8" s="25">
         <v>1592</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <v>143</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="29">
         <v>1062</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>925</v>
       </c>
-      <c r="D9" s="25">
+      <c r="E9" s="25">
         <v>14</v>
       </c>
-      <c r="E9" s="25">
+      <c r="F9" s="25">
         <v>12</v>
       </c>
-      <c r="F9" s="25">
+      <c r="G9" s="25">
         <v>7</v>
       </c>
-      <c r="G9" s="25">
+      <c r="H9" s="25">
         <v>1</v>
       </c>
-      <c r="H9" s="25">
+      <c r="I9" s="25">
         <v>11</v>
       </c>
-      <c r="I9" s="25">
+      <c r="J9" s="25">
         <v>8</v>
       </c>
-      <c r="J9" s="25">
+      <c r="K9" s="25">
         <v>7</v>
       </c>
-      <c r="K9" s="25">
+      <c r="L9" s="25">
         <v>6</v>
       </c>
-      <c r="L9" s="25">
+      <c r="M9" s="25">
         <v>16</v>
       </c>
-      <c r="M9" s="25">
+      <c r="N9" s="25">
         <v>11</v>
       </c>
-      <c r="N9" s="25">
-        <v>0</v>
-      </c>
       <c r="O9" s="25">
+        <v>0</v>
+      </c>
+      <c r="P9" s="25">
         <v>44</v>
       </c>
-      <c r="P9" s="25">
+      <c r="Q9" s="25">
         <v>58</v>
       </c>
-      <c r="Q9" s="25">
+      <c r="R9" s="25">
         <v>266</v>
       </c>
-      <c r="R9" s="25">
+      <c r="S9" s="25">
         <v>43</v>
       </c>
-      <c r="S9" s="25">
+      <c r="T9" s="25">
         <v>220</v>
       </c>
-      <c r="T9" s="25">
-        <v>0</v>
-      </c>
       <c r="U9" s="25">
+        <v>0</v>
+      </c>
+      <c r="V9" s="25">
         <v>230</v>
       </c>
-      <c r="V9" s="25">
+      <c r="W9" s="25">
         <v>155</v>
       </c>
-      <c r="W9" s="25">
-        <v>0</v>
-      </c>
       <c r="X9" s="25">
         <v>0</v>
       </c>
       <c r="Y9" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="25">
         <v>120</v>
       </c>
-      <c r="Z9" s="25">
-        <v>0</v>
-      </c>
       <c r="AA9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="25">
         <v>135</v>
       </c>
-      <c r="AB9" s="25">
+      <c r="AC9" s="25">
         <v>22</v>
       </c>
-      <c r="AC9" s="25">
+      <c r="AD9" s="25">
         <v>55</v>
       </c>
-      <c r="AD9" s="25">
+      <c r="AE9" s="25">
         <v>162</v>
       </c>
-      <c r="AE9" s="25">
+      <c r="AF9" s="25">
         <v>46</v>
       </c>
-      <c r="AF9" s="25">
+      <c r="AG9" s="25">
         <v>15</v>
       </c>
-      <c r="AG9" s="25">
+      <c r="AH9" s="25">
         <v>2392</v>
       </c>
-      <c r="AH9" s="25">
+      <c r="AI9" s="25">
         <v>33</v>
       </c>
-      <c r="AI9" s="25">
+      <c r="AJ9" s="25">
         <v>62</v>
       </c>
-      <c r="AJ9" s="25">
+      <c r="AK9" s="25">
         <v>8</v>
       </c>
-      <c r="AK9" s="25">
-        <v>0</v>
-      </c>
       <c r="AL9" s="25">
         <v>0</v>
       </c>
       <c r="AM9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="25">
         <v>1271</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>144</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="29">
         <v>3531</v>
       </c>
-      <c r="C10" s="29">
+      <c r="D10" s="29">
         <v>3030</v>
       </c>
-      <c r="D10" s="25">
+      <c r="E10" s="25">
         <v>60</v>
       </c>
-      <c r="E10" s="25">
+      <c r="F10" s="25">
         <v>82</v>
       </c>
-      <c r="F10" s="25">
+      <c r="G10" s="25">
         <v>61</v>
       </c>
-      <c r="G10" s="25">
+      <c r="H10" s="25">
         <v>10</v>
       </c>
-      <c r="H10" s="25">
+      <c r="I10" s="25">
         <v>62</v>
       </c>
-      <c r="I10" s="25">
+      <c r="J10" s="25">
         <v>21</v>
       </c>
-      <c r="J10" s="25">
+      <c r="K10" s="25">
         <v>9</v>
       </c>
-      <c r="K10" s="25">
+      <c r="L10" s="25">
         <v>35</v>
       </c>
-      <c r="L10" s="25">
+      <c r="M10" s="25">
         <v>14</v>
       </c>
-      <c r="M10" s="25">
+      <c r="N10" s="25">
         <v>70</v>
       </c>
-      <c r="N10" s="25">
+      <c r="O10" s="25">
         <v>4</v>
       </c>
-      <c r="O10" s="25">
+      <c r="P10" s="25">
         <v>73</v>
       </c>
-      <c r="P10" s="25">
+      <c r="Q10" s="25">
         <v>304</v>
       </c>
-      <c r="Q10" s="25">
+      <c r="R10" s="25">
         <v>1044</v>
       </c>
-      <c r="R10" s="25">
+      <c r="S10" s="25">
         <v>36</v>
       </c>
-      <c r="S10" s="25">
+      <c r="T10" s="25">
         <v>895</v>
       </c>
-      <c r="T10" s="25">
+      <c r="U10" s="25">
         <v>145</v>
       </c>
-      <c r="U10" s="25">
+      <c r="V10" s="25">
         <v>870</v>
       </c>
-      <c r="V10" s="25">
+      <c r="W10" s="25">
         <v>650</v>
       </c>
-      <c r="W10" s="25">
+      <c r="X10" s="25">
         <v>180</v>
       </c>
-      <c r="X10" s="25">
+      <c r="Y10" s="25">
         <v>105</v>
       </c>
-      <c r="Y10" s="25">
+      <c r="Z10" s="25">
         <v>330</v>
       </c>
-      <c r="Z10" s="25">
+      <c r="AA10" s="25">
         <v>615</v>
       </c>
-      <c r="AA10" s="25">
+      <c r="AB10" s="25">
         <v>965</v>
       </c>
-      <c r="AB10" s="25">
+      <c r="AC10" s="25">
         <v>26</v>
       </c>
-      <c r="AC10" s="25">
+      <c r="AD10" s="25">
         <v>52</v>
       </c>
-      <c r="AD10" s="25">
+      <c r="AE10" s="25">
         <v>125</v>
       </c>
-      <c r="AE10" s="25">
+      <c r="AF10" s="25">
         <v>169</v>
       </c>
-      <c r="AF10" s="25">
+      <c r="AG10" s="25">
         <v>534</v>
       </c>
-      <c r="AG10" s="25">
+      <c r="AH10" s="25">
         <v>4542</v>
       </c>
-      <c r="AH10" s="25">
+      <c r="AI10" s="25">
         <v>40</v>
       </c>
-      <c r="AI10" s="25">
+      <c r="AJ10" s="25">
         <v>73</v>
       </c>
-      <c r="AJ10" s="25">
+      <c r="AK10" s="25">
         <v>72</v>
       </c>
-      <c r="AK10" s="25">
+      <c r="AL10" s="25">
         <v>10</v>
       </c>
-      <c r="AL10" s="25">
+      <c r="AM10" s="25">
         <v>5</v>
       </c>
-      <c r="AM10" s="25">
+      <c r="AN10" s="25">
         <v>1859</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>145</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="29">
         <v>4223</v>
       </c>
-      <c r="C11" s="29">
+      <c r="D11" s="29">
         <v>3639</v>
       </c>
-      <c r="D11" s="25">
+      <c r="E11" s="25">
         <v>73</v>
       </c>
-      <c r="E11" s="25">
+      <c r="F11" s="25">
         <v>91</v>
       </c>
-      <c r="F11" s="25">
+      <c r="G11" s="25">
         <v>50</v>
       </c>
-      <c r="G11" s="25">
+      <c r="H11" s="25">
         <v>7</v>
       </c>
-      <c r="H11" s="25">
+      <c r="I11" s="25">
         <v>44</v>
       </c>
-      <c r="I11" s="25">
+      <c r="J11" s="25">
         <v>35</v>
       </c>
-      <c r="J11" s="25">
+      <c r="K11" s="25">
         <v>10</v>
       </c>
-      <c r="K11" s="25">
+      <c r="L11" s="25">
         <v>26</v>
       </c>
-      <c r="L11" s="25">
+      <c r="M11" s="25">
         <v>46</v>
       </c>
-      <c r="M11" s="25">
+      <c r="N11" s="25">
         <v>57</v>
       </c>
-      <c r="N11" s="25">
+      <c r="O11" s="25">
         <v>3</v>
       </c>
-      <c r="O11" s="25">
+      <c r="P11" s="25">
         <v>147</v>
       </c>
-      <c r="P11" s="25">
+      <c r="Q11" s="25">
         <v>515</v>
       </c>
-      <c r="Q11" s="25">
+      <c r="R11" s="25">
         <v>1140</v>
       </c>
-      <c r="R11" s="25">
+      <c r="S11" s="25">
         <v>86</v>
       </c>
-      <c r="S11" s="25">
+      <c r="T11" s="25">
         <v>1130</v>
       </c>
-      <c r="T11" s="25">
-        <v>0</v>
-      </c>
       <c r="U11" s="25">
+        <v>0</v>
+      </c>
+      <c r="V11" s="25">
         <v>1095</v>
       </c>
-      <c r="V11" s="25">
+      <c r="W11" s="25">
         <v>855</v>
       </c>
-      <c r="W11" s="25">
-        <v>0</v>
-      </c>
       <c r="X11" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="25">
         <v>190</v>
       </c>
-      <c r="Y11" s="25">
+      <c r="Z11" s="25">
         <v>320</v>
       </c>
-      <c r="Z11" s="25">
+      <c r="AA11" s="25">
         <v>630</v>
       </c>
-      <c r="AA11" s="25">
+      <c r="AB11" s="25">
         <v>935</v>
       </c>
-      <c r="AB11" s="25">
+      <c r="AC11" s="25">
         <v>28</v>
       </c>
-      <c r="AC11" s="25">
+      <c r="AD11" s="25">
         <v>66</v>
       </c>
-      <c r="AD11" s="25">
+      <c r="AE11" s="25">
         <v>337</v>
       </c>
-      <c r="AE11" s="25">
+      <c r="AF11" s="25">
         <v>424</v>
       </c>
-      <c r="AF11" s="25">
+      <c r="AG11" s="25">
         <v>305</v>
       </c>
-      <c r="AG11" s="25">
+      <c r="AH11" s="25">
         <v>3351</v>
       </c>
-      <c r="AH11" s="25">
+      <c r="AI11" s="25">
         <v>64</v>
       </c>
-      <c r="AI11" s="25">
+      <c r="AJ11" s="25">
         <v>158</v>
       </c>
-      <c r="AJ11" s="25">
+      <c r="AK11" s="25">
         <v>75</v>
       </c>
-      <c r="AK11" s="25">
+      <c r="AL11" s="25">
         <v>8</v>
       </c>
-      <c r="AL11" s="25">
+      <c r="AM11" s="25">
         <v>3</v>
       </c>
-      <c r="AM11" s="25">
+      <c r="AN11" s="25">
         <v>1634</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>146</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="29">
         <v>2348</v>
       </c>
-      <c r="C12" s="29">
+      <c r="D12" s="29">
         <v>2091</v>
       </c>
-      <c r="D12" s="25">
+      <c r="E12" s="25">
         <v>45</v>
       </c>
-      <c r="E12" s="25">
+      <c r="F12" s="25">
         <v>46</v>
       </c>
-      <c r="F12" s="25">
+      <c r="G12" s="25">
         <v>24</v>
       </c>
-      <c r="G12" s="25">
-        <v>0</v>
-      </c>
       <c r="H12" s="25">
+        <v>0</v>
+      </c>
+      <c r="I12" s="25">
         <v>51</v>
       </c>
-      <c r="I12" s="25">
+      <c r="J12" s="25">
         <v>10</v>
       </c>
-      <c r="J12" s="25">
+      <c r="K12" s="25">
         <v>3</v>
       </c>
-      <c r="K12" s="25">
+      <c r="L12" s="25">
         <v>14</v>
       </c>
-      <c r="L12" s="25">
+      <c r="M12" s="25">
         <v>9</v>
       </c>
-      <c r="M12" s="25">
+      <c r="N12" s="25">
         <v>24</v>
       </c>
-      <c r="N12" s="25">
+      <c r="O12" s="25">
         <v>10</v>
       </c>
-      <c r="O12" s="25">
+      <c r="P12" s="25">
         <v>21</v>
       </c>
-      <c r="P12" s="25">
+      <c r="Q12" s="25">
         <v>189</v>
       </c>
-      <c r="Q12" s="25">
+      <c r="R12" s="25">
         <v>621</v>
       </c>
-      <c r="R12" s="25">
+      <c r="S12" s="25">
         <v>66</v>
       </c>
-      <c r="S12" s="25">
+      <c r="T12" s="25">
         <v>565</v>
       </c>
-      <c r="T12" s="25">
-        <v>0</v>
-      </c>
       <c r="U12" s="25">
+        <v>0</v>
+      </c>
+      <c r="V12" s="25">
         <v>565</v>
       </c>
-      <c r="V12" s="25">
+      <c r="W12" s="25">
         <v>365</v>
       </c>
-      <c r="W12" s="25">
-        <v>0</v>
-      </c>
       <c r="X12" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="25">
         <v>330</v>
       </c>
-      <c r="Y12" s="25">
+      <c r="Z12" s="25">
         <v>175</v>
       </c>
-      <c r="Z12" s="25">
+      <c r="AA12" s="25">
         <v>120</v>
       </c>
-      <c r="AA12" s="25">
+      <c r="AB12" s="25">
         <v>515</v>
       </c>
-      <c r="AB12" s="25">
+      <c r="AC12" s="25">
         <v>24</v>
       </c>
-      <c r="AC12" s="25">
+      <c r="AD12" s="25">
         <v>53</v>
       </c>
-      <c r="AD12" s="25">
+      <c r="AE12" s="25">
         <v>148</v>
       </c>
-      <c r="AE12" s="25">
+      <c r="AF12" s="25">
         <v>126</v>
       </c>
-      <c r="AF12" s="25">
+      <c r="AG12" s="25">
         <v>210</v>
       </c>
-      <c r="AG12" s="25">
+      <c r="AH12" s="25">
         <v>3444</v>
       </c>
-      <c r="AH12" s="25">
+      <c r="AI12" s="25">
         <v>60</v>
       </c>
-      <c r="AI12" s="25">
+      <c r="AJ12" s="25">
         <v>88</v>
       </c>
-      <c r="AJ12" s="25">
+      <c r="AK12" s="25">
         <v>49</v>
       </c>
-      <c r="AK12" s="25">
+      <c r="AL12" s="25">
         <v>8</v>
       </c>
-      <c r="AL12" s="25">
+      <c r="AM12" s="25">
         <v>2</v>
       </c>
-      <c r="AM12" s="25">
+      <c r="AN12" s="25">
         <v>1593</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>147</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="29">
         <v>2097</v>
       </c>
-      <c r="C13" s="29">
+      <c r="D13" s="29">
         <v>1875</v>
       </c>
-      <c r="D13" s="25">
+      <c r="E13" s="25">
         <v>33</v>
       </c>
-      <c r="E13" s="25">
+      <c r="F13" s="25">
         <v>61</v>
       </c>
-      <c r="F13" s="25">
+      <c r="G13" s="25">
         <v>19</v>
       </c>
-      <c r="G13" s="25">
+      <c r="H13" s="25">
         <v>3</v>
       </c>
-      <c r="H13" s="25">
+      <c r="I13" s="25">
         <v>31</v>
       </c>
-      <c r="I13" s="25">
+      <c r="J13" s="25">
         <v>7</v>
       </c>
-      <c r="J13" s="25">
-        <v>0</v>
-      </c>
       <c r="K13" s="25">
+        <v>0</v>
+      </c>
+      <c r="L13" s="25">
         <v>12</v>
       </c>
-      <c r="L13" s="25">
+      <c r="M13" s="25">
         <v>10</v>
       </c>
-      <c r="M13" s="25">
+      <c r="N13" s="25">
         <v>31</v>
       </c>
-      <c r="N13" s="25">
-        <v>0</v>
-      </c>
       <c r="O13" s="25">
+        <v>0</v>
+      </c>
+      <c r="P13" s="25">
         <v>15</v>
       </c>
-      <c r="P13" s="25">
+      <c r="Q13" s="25">
         <v>288</v>
       </c>
-      <c r="Q13" s="25">
+      <c r="R13" s="25">
         <v>602</v>
       </c>
-      <c r="R13" s="25">
+      <c r="S13" s="25">
         <v>16</v>
       </c>
-      <c r="S13" s="25">
+      <c r="T13" s="25">
         <v>535</v>
       </c>
-      <c r="T13" s="25">
-        <v>0</v>
-      </c>
       <c r="U13" s="25">
+        <v>0</v>
+      </c>
+      <c r="V13" s="25">
         <v>565</v>
       </c>
-      <c r="V13" s="25">
+      <c r="W13" s="25">
         <v>460</v>
       </c>
-      <c r="W13" s="25">
-        <v>0</v>
-      </c>
       <c r="X13" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="25">
         <v>135</v>
       </c>
-      <c r="Y13" s="25">
+      <c r="Z13" s="25">
         <v>400</v>
       </c>
-      <c r="Z13" s="25">
-        <v>0</v>
-      </c>
       <c r="AA13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="25">
         <v>490</v>
       </c>
-      <c r="AB13" s="25">
+      <c r="AC13" s="25">
         <v>21</v>
       </c>
-      <c r="AC13" s="25">
+      <c r="AD13" s="25">
         <v>28</v>
       </c>
-      <c r="AD13" s="25">
+      <c r="AE13" s="25">
         <v>72</v>
       </c>
-      <c r="AE13" s="25">
+      <c r="AF13" s="25">
         <v>125</v>
       </c>
-      <c r="AF13" s="25">
+      <c r="AG13" s="25">
         <v>282</v>
       </c>
-      <c r="AG13" s="25">
+      <c r="AH13" s="25">
         <v>4224</v>
       </c>
-      <c r="AH13" s="25">
+      <c r="AI13" s="25">
         <v>28</v>
       </c>
-      <c r="AI13" s="25">
+      <c r="AJ13" s="25">
         <v>38</v>
       </c>
-      <c r="AJ13" s="25">
+      <c r="AK13" s="25">
         <v>51</v>
       </c>
-      <c r="AK13" s="25">
+      <c r="AL13" s="25">
         <v>13</v>
       </c>
-      <c r="AL13" s="25">
+      <c r="AM13" s="25">
         <v>2</v>
       </c>
-      <c r="AM13" s="25">
+      <c r="AN13" s="25">
         <v>2000</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>148</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="29">
         <v>1367</v>
       </c>
-      <c r="C14" s="29">
+      <c r="D14" s="29">
         <v>1161</v>
       </c>
-      <c r="D14" s="25">
+      <c r="E14" s="25">
         <v>20</v>
       </c>
-      <c r="E14" s="25">
+      <c r="F14" s="25">
         <v>44</v>
       </c>
-      <c r="F14" s="25">
+      <c r="G14" s="25">
         <v>17</v>
       </c>
-      <c r="G14" s="25">
-        <v>0</v>
-      </c>
       <c r="H14" s="25">
+        <v>0</v>
+      </c>
+      <c r="I14" s="25">
         <v>17</v>
       </c>
-      <c r="I14" s="25">
+      <c r="J14" s="25">
         <v>9</v>
       </c>
-      <c r="J14" s="25">
+      <c r="K14" s="25">
         <v>3</v>
       </c>
-      <c r="K14" s="25">
+      <c r="L14" s="25">
         <v>10</v>
       </c>
-      <c r="L14" s="25">
+      <c r="M14" s="25">
         <v>14</v>
       </c>
-      <c r="M14" s="25">
+      <c r="N14" s="25">
         <v>8</v>
       </c>
-      <c r="N14" s="25">
-        <v>0</v>
-      </c>
       <c r="O14" s="25">
+        <v>0</v>
+      </c>
+      <c r="P14" s="25">
         <v>64</v>
       </c>
-      <c r="P14" s="25">
+      <c r="Q14" s="25">
         <v>133</v>
       </c>
-      <c r="Q14" s="25">
+      <c r="R14" s="25">
         <v>372</v>
       </c>
-      <c r="R14" s="25">
+      <c r="S14" s="25">
         <v>20</v>
       </c>
-      <c r="S14" s="25">
+      <c r="T14" s="25">
         <v>360</v>
       </c>
-      <c r="T14" s="25">
-        <v>0</v>
-      </c>
       <c r="U14" s="25">
+        <v>0</v>
+      </c>
+      <c r="V14" s="25">
         <v>350</v>
       </c>
-      <c r="V14" s="25">
+      <c r="W14" s="25">
         <v>205</v>
       </c>
-      <c r="W14" s="25">
-        <v>0</v>
-      </c>
       <c r="X14" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="25">
         <v>185</v>
       </c>
-      <c r="Y14" s="25">
+      <c r="Z14" s="25">
         <v>130</v>
       </c>
-      <c r="Z14" s="25">
-        <v>0</v>
-      </c>
       <c r="AA14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="25">
         <v>360</v>
       </c>
-      <c r="AB14" s="25">
+      <c r="AC14" s="25">
         <v>28</v>
       </c>
-      <c r="AC14" s="25">
+      <c r="AD14" s="25">
         <v>24</v>
       </c>
-      <c r="AD14" s="25">
+      <c r="AE14" s="25">
         <v>62</v>
       </c>
-      <c r="AE14" s="25">
+      <c r="AF14" s="25">
         <v>196</v>
       </c>
-      <c r="AF14" s="25">
+      <c r="AG14" s="25">
         <v>44</v>
       </c>
-      <c r="AG14" s="25">
+      <c r="AH14" s="25">
         <v>4447</v>
       </c>
-      <c r="AH14" s="25">
+      <c r="AI14" s="25">
         <v>47</v>
       </c>
-      <c r="AI14" s="25">
+      <c r="AJ14" s="25">
         <v>36</v>
       </c>
-      <c r="AJ14" s="25">
+      <c r="AK14" s="25">
         <v>28</v>
       </c>
-      <c r="AK14" s="25">
+      <c r="AL14" s="25">
         <v>6</v>
       </c>
-      <c r="AL14" s="25">
+      <c r="AM14" s="25">
         <v>2</v>
       </c>
-      <c r="AM14" s="25">
+      <c r="AN14" s="25">
         <v>1464</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <v>149</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="29">
         <v>1793</v>
       </c>
-      <c r="C15" s="29">
+      <c r="D15" s="29">
         <v>1471</v>
       </c>
-      <c r="D15" s="25">
+      <c r="E15" s="25">
         <v>31</v>
       </c>
-      <c r="E15" s="25">
+      <c r="F15" s="25">
         <v>37</v>
       </c>
-      <c r="F15" s="25">
+      <c r="G15" s="25">
         <v>44</v>
       </c>
-      <c r="G15" s="25">
+      <c r="H15" s="25">
         <v>7</v>
       </c>
-      <c r="H15" s="25">
+      <c r="I15" s="25">
         <v>27</v>
       </c>
-      <c r="I15" s="25">
+      <c r="J15" s="25">
         <v>16</v>
       </c>
-      <c r="J15" s="25">
+      <c r="K15" s="25">
         <v>6</v>
       </c>
-      <c r="K15" s="25">
+      <c r="L15" s="25">
         <v>5</v>
       </c>
-      <c r="L15" s="25">
+      <c r="M15" s="25">
         <v>12</v>
       </c>
-      <c r="M15" s="25">
+      <c r="N15" s="25">
         <v>31</v>
       </c>
-      <c r="N15" s="25">
-        <v>0</v>
-      </c>
       <c r="O15" s="25">
+        <v>0</v>
+      </c>
+      <c r="P15" s="25">
         <v>106</v>
       </c>
-      <c r="P15" s="25">
+      <c r="Q15" s="25">
         <v>206</v>
       </c>
-      <c r="Q15" s="25">
+      <c r="R15" s="25">
         <v>486</v>
       </c>
-      <c r="R15" s="25">
+      <c r="S15" s="25">
         <v>48</v>
       </c>
-      <c r="S15" s="25">
+      <c r="T15" s="25">
         <v>435</v>
       </c>
-      <c r="T15" s="25">
-        <v>0</v>
-      </c>
       <c r="U15" s="25">
+        <v>0</v>
+      </c>
+      <c r="V15" s="25">
         <v>435</v>
       </c>
-      <c r="V15" s="25">
+      <c r="W15" s="25">
         <v>260</v>
       </c>
-      <c r="W15" s="25">
-        <v>0</v>
-      </c>
       <c r="X15" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="25">
         <v>240</v>
       </c>
-      <c r="Y15" s="25">
+      <c r="Z15" s="25">
         <v>145</v>
       </c>
-      <c r="Z15" s="25">
+      <c r="AA15" s="25">
         <v>105</v>
       </c>
-      <c r="AA15" s="25">
+      <c r="AB15" s="25">
         <v>355</v>
       </c>
-      <c r="AB15" s="25">
+      <c r="AC15" s="25">
         <v>37</v>
       </c>
-      <c r="AC15" s="25">
+      <c r="AD15" s="25">
         <v>60</v>
       </c>
-      <c r="AD15" s="25">
+      <c r="AE15" s="25">
         <v>130</v>
       </c>
-      <c r="AE15" s="25">
+      <c r="AF15" s="25">
         <v>73</v>
       </c>
-      <c r="AF15" s="25">
+      <c r="AG15" s="25">
         <v>166</v>
       </c>
-      <c r="AG15" s="25">
+      <c r="AH15" s="25">
         <v>3082</v>
       </c>
-      <c r="AH15" s="25">
+      <c r="AI15" s="25">
         <v>37</v>
       </c>
-      <c r="AI15" s="25">
+      <c r="AJ15" s="25">
         <v>65</v>
       </c>
-      <c r="AJ15" s="25">
+      <c r="AK15" s="25">
         <v>21</v>
       </c>
-      <c r="AK15" s="25">
+      <c r="AL15" s="25">
         <v>7</v>
       </c>
-      <c r="AL15" s="25">
+      <c r="AM15" s="25">
         <v>3</v>
       </c>
-      <c r="AM15" s="25">
+      <c r="AN15" s="25">
         <v>1514</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="22">
         <v>150</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="25">
         <v>988</v>
       </c>
-      <c r="C16" s="25">
+      <c r="D16" s="25">
         <v>851</v>
       </c>
-      <c r="D16" s="25">
+      <c r="E16" s="25">
         <v>50</v>
       </c>
-      <c r="E16" s="25">
+      <c r="F16" s="25">
         <v>37</v>
       </c>
-      <c r="F16" s="25">
+      <c r="G16" s="25">
         <v>13</v>
       </c>
-      <c r="G16" s="25">
-        <v>0</v>
-      </c>
       <c r="H16" s="25">
+        <v>0</v>
+      </c>
+      <c r="I16" s="25">
         <v>19</v>
       </c>
-      <c r="I16" s="25">
+      <c r="J16" s="25">
         <v>5</v>
       </c>
-      <c r="J16" s="25">
-        <v>0</v>
-      </c>
       <c r="K16" s="25">
+        <v>0</v>
+      </c>
+      <c r="L16" s="25">
         <v>10</v>
       </c>
-      <c r="L16" s="25">
+      <c r="M16" s="25">
         <v>2</v>
       </c>
-      <c r="M16" s="25">
+      <c r="N16" s="25">
         <v>8</v>
       </c>
-      <c r="N16" s="25">
-        <v>0</v>
-      </c>
       <c r="O16" s="25">
+        <v>0</v>
+      </c>
+      <c r="P16" s="25">
         <v>3</v>
       </c>
-      <c r="P16" s="25">
+      <c r="Q16" s="25">
         <v>170</v>
       </c>
-      <c r="Q16" s="25">
+      <c r="R16" s="25">
         <v>296</v>
       </c>
-      <c r="R16" s="25">
+      <c r="S16" s="25">
         <v>15</v>
       </c>
-      <c r="S16" s="25">
+      <c r="T16" s="25">
         <v>265</v>
       </c>
-      <c r="T16" s="25">
-        <v>0</v>
-      </c>
       <c r="U16" s="25">
+        <v>0</v>
+      </c>
+      <c r="V16" s="25">
         <v>260</v>
       </c>
-      <c r="V16" s="25">
+      <c r="W16" s="25">
         <v>125</v>
       </c>
-      <c r="W16" s="25">
-        <v>0</v>
-      </c>
       <c r="X16" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="25">
         <v>170</v>
       </c>
-      <c r="Y16" s="25">
-        <v>0</v>
-      </c>
       <c r="Z16" s="25">
         <v>0</v>
       </c>
       <c r="AA16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="25">
         <v>255</v>
       </c>
-      <c r="AB16" s="25">
+      <c r="AC16" s="25">
         <v>16</v>
       </c>
-      <c r="AC16" s="25">
+      <c r="AD16" s="25">
         <v>14</v>
       </c>
-      <c r="AD16" s="25">
+      <c r="AE16" s="25">
         <v>22</v>
       </c>
-      <c r="AE16" s="25">
+      <c r="AF16" s="25">
         <v>27</v>
       </c>
-      <c r="AF16" s="25">
+      <c r="AG16" s="25">
         <v>147</v>
       </c>
-      <c r="AG16" s="25">
+      <c r="AH16" s="25">
         <v>5388</v>
       </c>
-      <c r="AH16" s="25">
+      <c r="AI16" s="25">
         <v>18</v>
       </c>
-      <c r="AI16" s="25">
+      <c r="AJ16" s="25">
         <v>16</v>
       </c>
-      <c r="AJ16" s="25">
+      <c r="AK16" s="25">
         <v>24</v>
       </c>
-      <c r="AK16" s="25">
+      <c r="AL16" s="25">
         <v>5</v>
       </c>
-      <c r="AL16" s="25">
+      <c r="AM16" s="25">
         <v>1</v>
       </c>
-      <c r="AM16" s="25">
+      <c r="AN16" s="25">
         <v>1929</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
         <v>151</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="25">
         <v>2302</v>
       </c>
-      <c r="C17" s="25">
+      <c r="D17" s="25">
         <v>1992</v>
       </c>
-      <c r="D17" s="25">
+      <c r="E17" s="25">
         <v>32</v>
       </c>
-      <c r="E17" s="25">
+      <c r="F17" s="25">
         <v>75</v>
       </c>
-      <c r="F17" s="25">
+      <c r="G17" s="25">
         <v>63</v>
       </c>
-      <c r="G17" s="25">
-        <v>0</v>
-      </c>
       <c r="H17" s="25">
+        <v>0</v>
+      </c>
+      <c r="I17" s="25">
         <v>45</v>
       </c>
-      <c r="I17" s="25">
+      <c r="J17" s="25">
         <v>29</v>
       </c>
-      <c r="J17" s="25">
+      <c r="K17" s="25">
         <v>4</v>
       </c>
-      <c r="K17" s="25">
+      <c r="L17" s="25">
         <v>14</v>
       </c>
-      <c r="L17" s="25">
+      <c r="M17" s="25">
         <v>3</v>
       </c>
-      <c r="M17" s="25">
+      <c r="N17" s="25">
         <v>9</v>
       </c>
-      <c r="N17" s="25">
-        <v>0</v>
-      </c>
       <c r="O17" s="25">
+        <v>0</v>
+      </c>
+      <c r="P17" s="25">
         <v>36</v>
       </c>
-      <c r="P17" s="25">
+      <c r="Q17" s="25">
         <v>313</v>
       </c>
-      <c r="Q17" s="25">
+      <c r="R17" s="25">
         <v>674</v>
       </c>
-      <c r="R17" s="25">
+      <c r="S17" s="25">
         <v>31</v>
       </c>
-      <c r="S17" s="25">
+      <c r="T17" s="25">
         <v>590</v>
       </c>
-      <c r="T17" s="25">
-        <v>0</v>
-      </c>
       <c r="U17" s="25">
+        <v>0</v>
+      </c>
+      <c r="V17" s="25">
         <v>575</v>
       </c>
-      <c r="V17" s="25">
+      <c r="W17" s="25">
         <v>270</v>
       </c>
-      <c r="W17" s="25">
+      <c r="X17" s="25">
         <v>105</v>
       </c>
-      <c r="X17" s="25">
+      <c r="Y17" s="25">
         <v>400</v>
       </c>
-      <c r="Y17" s="25">
+      <c r="Z17" s="25">
         <v>150</v>
       </c>
-      <c r="Z17" s="25">
+      <c r="AA17" s="25">
         <v>130</v>
       </c>
-      <c r="AA17" s="25">
+      <c r="AB17" s="25">
         <v>595</v>
       </c>
-      <c r="AB17" s="25">
+      <c r="AC17" s="25">
         <v>26</v>
       </c>
-      <c r="AC17" s="25">
+      <c r="AD17" s="25">
         <v>37</v>
       </c>
-      <c r="AD17" s="25">
+      <c r="AE17" s="25">
         <v>76</v>
       </c>
-      <c r="AE17" s="25">
+      <c r="AF17" s="25">
         <v>69</v>
       </c>
-      <c r="AF17" s="25">
+      <c r="AG17" s="25">
         <v>314</v>
       </c>
-      <c r="AG17" s="25">
+      <c r="AH17" s="25">
         <v>4946</v>
       </c>
-      <c r="AH17" s="25">
+      <c r="AI17" s="25">
         <v>53</v>
       </c>
-      <c r="AI17" s="25">
+      <c r="AJ17" s="25">
         <v>67</v>
       </c>
-      <c r="AJ17" s="25">
+      <c r="AK17" s="25">
         <v>47</v>
       </c>
-      <c r="AK17" s="25">
+      <c r="AL17" s="25">
         <v>9</v>
       </c>
-      <c r="AL17" s="25">
+      <c r="AM17" s="25">
         <v>4</v>
       </c>
-      <c r="AM17" s="25">
+      <c r="AN17" s="25">
         <v>1615</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <v>152</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="25">
         <v>3747</v>
       </c>
-      <c r="C18" s="25">
+      <c r="D18" s="25">
         <v>3102</v>
       </c>
-      <c r="D18" s="25">
+      <c r="E18" s="25">
         <v>72</v>
       </c>
-      <c r="E18" s="25">
+      <c r="F18" s="25">
         <v>90</v>
       </c>
-      <c r="F18" s="25">
+      <c r="G18" s="25">
         <v>80</v>
       </c>
-      <c r="G18" s="25">
+      <c r="H18" s="25">
         <v>3</v>
       </c>
-      <c r="H18" s="25">
+      <c r="I18" s="25">
         <v>65</v>
       </c>
-      <c r="I18" s="25">
+      <c r="J18" s="25">
         <v>49</v>
       </c>
-      <c r="J18" s="25">
+      <c r="K18" s="25">
         <v>1</v>
       </c>
-      <c r="K18" s="25">
+      <c r="L18" s="25">
         <v>50</v>
       </c>
-      <c r="L18" s="25">
+      <c r="M18" s="25">
         <v>54</v>
       </c>
-      <c r="M18" s="25">
+      <c r="N18" s="25">
         <v>147</v>
       </c>
-      <c r="N18" s="25">
+      <c r="O18" s="25">
         <v>5</v>
       </c>
-      <c r="O18" s="25">
+      <c r="P18" s="25">
         <v>29</v>
       </c>
-      <c r="P18" s="25">
+      <c r="Q18" s="25">
         <v>422</v>
       </c>
-      <c r="Q18" s="25">
+      <c r="R18" s="25">
         <v>963</v>
       </c>
-      <c r="R18" s="25">
+      <c r="S18" s="25">
         <v>110</v>
       </c>
-      <c r="S18" s="25">
+      <c r="T18" s="25">
         <v>910</v>
       </c>
-      <c r="T18" s="25">
-        <v>0</v>
-      </c>
       <c r="U18" s="25">
+        <v>0</v>
+      </c>
+      <c r="V18" s="25">
         <v>900</v>
       </c>
-      <c r="V18" s="25">
+      <c r="W18" s="25">
         <v>475</v>
       </c>
-      <c r="W18" s="25">
-        <v>0</v>
-      </c>
       <c r="X18" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="25">
         <v>225</v>
       </c>
-      <c r="Y18" s="25">
+      <c r="Z18" s="25">
         <v>370</v>
       </c>
-      <c r="Z18" s="25">
+      <c r="AA18" s="25">
         <v>365</v>
       </c>
-      <c r="AA18" s="25">
+      <c r="AB18" s="25">
         <v>735</v>
       </c>
-      <c r="AB18" s="25">
+      <c r="AC18" s="25">
         <v>67</v>
       </c>
-      <c r="AC18" s="25">
+      <c r="AD18" s="25">
         <v>139</v>
       </c>
-      <c r="AD18" s="25">
+      <c r="AE18" s="25">
         <v>425</v>
       </c>
-      <c r="AE18" s="25">
+      <c r="AF18" s="25">
         <v>311</v>
       </c>
-      <c r="AF18" s="25">
+      <c r="AG18" s="25">
         <v>148</v>
       </c>
-      <c r="AG18" s="25">
+      <c r="AH18" s="25">
         <v>2824</v>
       </c>
-      <c r="AH18" s="25">
+      <c r="AI18" s="25">
         <v>61</v>
       </c>
-      <c r="AI18" s="25">
+      <c r="AJ18" s="25">
         <v>170</v>
       </c>
-      <c r="AJ18" s="25">
+      <c r="AK18" s="25">
         <v>56</v>
       </c>
-      <c r="AK18" s="25">
+      <c r="AL18" s="25">
         <v>4</v>
       </c>
-      <c r="AL18" s="25">
-        <v>0</v>
-      </c>
       <c r="AM18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="25">
         <v>1599</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <v>153</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="25">
         <v>5202</v>
       </c>
-      <c r="C19" s="25">
+      <c r="D19" s="25">
         <v>4394</v>
       </c>
-      <c r="D19" s="25">
+      <c r="E19" s="25">
         <v>173</v>
       </c>
-      <c r="E19" s="25">
+      <c r="F19" s="25">
         <v>91</v>
       </c>
-      <c r="F19" s="25">
+      <c r="G19" s="25">
         <v>83</v>
       </c>
-      <c r="G19" s="25">
+      <c r="H19" s="25">
         <v>5</v>
       </c>
-      <c r="H19" s="25">
+      <c r="I19" s="25">
         <v>121</v>
       </c>
-      <c r="I19" s="25">
+      <c r="J19" s="25">
         <v>66</v>
       </c>
-      <c r="J19" s="25">
+      <c r="K19" s="25">
         <v>6</v>
       </c>
-      <c r="K19" s="25">
+      <c r="L19" s="25">
         <v>36</v>
       </c>
-      <c r="L19" s="25">
+      <c r="M19" s="25">
         <v>60</v>
       </c>
-      <c r="M19" s="25">
+      <c r="N19" s="25">
         <v>77</v>
       </c>
-      <c r="N19" s="25">
+      <c r="O19" s="25">
         <v>8</v>
       </c>
-      <c r="O19" s="25">
+      <c r="P19" s="25">
         <v>82</v>
       </c>
-      <c r="P19" s="25">
+      <c r="Q19" s="25">
         <v>721</v>
       </c>
-      <c r="Q19" s="25">
+      <c r="R19" s="25">
         <v>1334</v>
       </c>
-      <c r="R19" s="25">
+      <c r="S19" s="25">
         <v>139</v>
       </c>
-      <c r="S19" s="25">
+      <c r="T19" s="25">
         <v>1300</v>
       </c>
-      <c r="T19" s="25">
-        <v>0</v>
-      </c>
       <c r="U19" s="25">
+        <v>0</v>
+      </c>
+      <c r="V19" s="25">
         <v>1185</v>
       </c>
-      <c r="V19" s="25">
+      <c r="W19" s="25">
         <v>940</v>
       </c>
-      <c r="W19" s="25">
+      <c r="X19" s="25">
         <v>160</v>
       </c>
-      <c r="X19" s="25">
+      <c r="Y19" s="25">
         <v>230</v>
       </c>
-      <c r="Y19" s="25">
+      <c r="Z19" s="25">
         <v>575</v>
       </c>
-      <c r="Z19" s="25">
+      <c r="AA19" s="25">
         <v>540</v>
       </c>
-      <c r="AA19" s="25">
+      <c r="AB19" s="25">
         <v>740</v>
       </c>
-      <c r="AB19" s="25">
+      <c r="AC19" s="25">
         <v>60</v>
       </c>
-      <c r="AC19" s="25">
+      <c r="AD19" s="25">
         <v>143</v>
       </c>
-      <c r="AD19" s="25">
+      <c r="AE19" s="25">
         <v>653</v>
       </c>
-      <c r="AE19" s="25">
+      <c r="AF19" s="25">
         <v>354</v>
       </c>
-      <c r="AF19" s="25">
+      <c r="AG19" s="25">
         <v>218</v>
       </c>
-      <c r="AG19" s="25">
+      <c r="AH19" s="25">
         <v>2811</v>
       </c>
-      <c r="AH19" s="25">
+      <c r="AI19" s="25">
         <v>109</v>
       </c>
-      <c r="AI19" s="25">
+      <c r="AJ19" s="25">
         <v>265</v>
       </c>
-      <c r="AJ19" s="25">
+      <c r="AK19" s="25">
         <v>82</v>
       </c>
-      <c r="AK19" s="25">
+      <c r="AL19" s="25">
         <v>7</v>
       </c>
-      <c r="AL19" s="25">
+      <c r="AM19" s="25">
         <v>1</v>
       </c>
-      <c r="AM19" s="25">
+      <c r="AN19" s="25">
         <v>1542</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <v>154</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="25">
         <v>2683</v>
       </c>
-      <c r="C20" s="25">
+      <c r="D20" s="25">
         <v>2344</v>
       </c>
-      <c r="D20" s="25">
+      <c r="E20" s="25">
         <v>68</v>
       </c>
-      <c r="E20" s="25">
+      <c r="F20" s="25">
         <v>45</v>
       </c>
-      <c r="F20" s="25">
+      <c r="G20" s="25">
         <v>31</v>
       </c>
-      <c r="G20" s="25">
+      <c r="H20" s="25">
         <v>3</v>
       </c>
-      <c r="H20" s="25">
+      <c r="I20" s="25">
         <v>63</v>
       </c>
-      <c r="I20" s="25">
+      <c r="J20" s="25">
         <v>15</v>
       </c>
-      <c r="J20" s="25">
+      <c r="K20" s="25">
         <v>5</v>
       </c>
-      <c r="K20" s="25">
+      <c r="L20" s="25">
         <v>12</v>
       </c>
-      <c r="L20" s="25">
+      <c r="M20" s="25">
         <v>21</v>
       </c>
-      <c r="M20" s="25">
+      <c r="N20" s="25">
         <v>52</v>
       </c>
-      <c r="N20" s="25">
-        <v>0</v>
-      </c>
       <c r="O20" s="25">
+        <v>0</v>
+      </c>
+      <c r="P20" s="25">
         <v>24</v>
       </c>
-      <c r="P20" s="25">
+      <c r="Q20" s="25">
         <v>272</v>
       </c>
-      <c r="Q20" s="25">
+      <c r="R20" s="25">
         <v>818</v>
       </c>
-      <c r="R20" s="25">
+      <c r="S20" s="25">
         <v>41</v>
       </c>
-      <c r="S20" s="25">
+      <c r="T20" s="25">
         <v>795</v>
       </c>
-      <c r="T20" s="25">
-        <v>0</v>
-      </c>
       <c r="U20" s="25">
+        <v>0</v>
+      </c>
+      <c r="V20" s="25">
         <v>760</v>
       </c>
-      <c r="V20" s="25">
+      <c r="W20" s="25">
         <v>545</v>
       </c>
-      <c r="W20" s="25">
-        <v>0</v>
-      </c>
       <c r="X20" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="25">
         <v>300</v>
       </c>
-      <c r="Y20" s="25">
+      <c r="Z20" s="25">
         <v>30</v>
       </c>
-      <c r="Z20" s="25">
+      <c r="AA20" s="25">
         <v>190</v>
       </c>
-      <c r="AA20" s="25">
+      <c r="AB20" s="25">
         <v>685</v>
       </c>
-      <c r="AB20" s="25">
+      <c r="AC20" s="25">
         <v>14</v>
       </c>
-      <c r="AC20" s="25">
+      <c r="AD20" s="25">
         <v>33</v>
       </c>
-      <c r="AD20" s="25">
+      <c r="AE20" s="25">
         <v>82</v>
       </c>
-      <c r="AE20" s="25">
+      <c r="AF20" s="25">
         <v>14</v>
       </c>
-      <c r="AF20" s="25">
+      <c r="AG20" s="25">
         <v>321</v>
       </c>
-      <c r="AG20" s="25">
+      <c r="AH20" s="25">
         <v>4253</v>
       </c>
-      <c r="AH20" s="25">
+      <c r="AI20" s="25">
         <v>22</v>
       </c>
-      <c r="AI20" s="25">
+      <c r="AJ20" s="25">
         <v>71</v>
       </c>
-      <c r="AJ20" s="25">
+      <c r="AK20" s="25">
         <v>64</v>
-      </c>
-      <c r="AK20" s="25">
-        <v>3</v>
       </c>
       <c r="AL20" s="25">
         <v>3</v>
       </c>
       <c r="AM20" s="25">
+        <v>3</v>
+      </c>
+      <c r="AN20" s="25">
         <v>1892</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <v>155</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="25">
         <v>3804</v>
       </c>
-      <c r="C21" s="25">
+      <c r="D21" s="25">
         <v>3173</v>
       </c>
-      <c r="D21" s="25">
+      <c r="E21" s="25">
         <v>51</v>
       </c>
-      <c r="E21" s="25">
+      <c r="F21" s="25">
         <v>95</v>
       </c>
-      <c r="F21" s="25">
+      <c r="G21" s="25">
         <v>80</v>
       </c>
-      <c r="G21" s="25">
+      <c r="H21" s="25">
         <v>20</v>
       </c>
-      <c r="H21" s="25">
+      <c r="I21" s="25">
         <v>74</v>
       </c>
-      <c r="I21" s="25">
+      <c r="J21" s="25">
         <v>35</v>
       </c>
-      <c r="J21" s="25">
+      <c r="K21" s="25">
         <v>26</v>
       </c>
-      <c r="K21" s="25">
+      <c r="L21" s="25">
         <v>35</v>
       </c>
-      <c r="L21" s="25">
+      <c r="M21" s="25">
         <v>43</v>
       </c>
-      <c r="M21" s="25">
+      <c r="N21" s="25">
         <v>72</v>
       </c>
-      <c r="N21" s="25">
-        <v>0</v>
-      </c>
       <c r="O21" s="25">
+        <v>0</v>
+      </c>
+      <c r="P21" s="25">
         <v>100</v>
       </c>
-      <c r="P21" s="25">
+      <c r="Q21" s="25">
         <v>362</v>
       </c>
-      <c r="Q21" s="25">
+      <c r="R21" s="25">
         <v>1197</v>
       </c>
-      <c r="R21" s="25">
+      <c r="S21" s="25">
         <v>59</v>
       </c>
-      <c r="S21" s="25">
+      <c r="T21" s="25">
         <v>860</v>
       </c>
-      <c r="T21" s="25">
+      <c r="U21" s="25">
         <v>335</v>
       </c>
-      <c r="U21" s="25">
+      <c r="V21" s="25">
         <v>850</v>
       </c>
-      <c r="V21" s="25">
+      <c r="W21" s="25">
         <v>650</v>
       </c>
-      <c r="W21" s="25">
+      <c r="X21" s="25">
         <v>350</v>
       </c>
-      <c r="X21" s="25">
+      <c r="Y21" s="25">
         <v>175</v>
       </c>
-      <c r="Y21" s="25">
+      <c r="Z21" s="25">
         <v>395</v>
       </c>
-      <c r="Z21" s="25">
+      <c r="AA21" s="25">
         <v>630</v>
       </c>
-      <c r="AA21" s="25">
+      <c r="AB21" s="25">
         <v>985</v>
       </c>
-      <c r="AB21" s="25">
+      <c r="AC21" s="25">
         <v>33</v>
       </c>
-      <c r="AC21" s="25">
+      <c r="AD21" s="25">
         <v>67</v>
       </c>
-      <c r="AD21" s="25">
+      <c r="AE21" s="25">
         <v>227</v>
       </c>
-      <c r="AE21" s="25">
+      <c r="AF21" s="25">
         <v>242</v>
       </c>
-      <c r="AF21" s="25">
+      <c r="AG21" s="25">
         <v>466</v>
       </c>
-      <c r="AG21" s="25">
+      <c r="AH21" s="25">
         <v>3789</v>
       </c>
-      <c r="AH21" s="25">
+      <c r="AI21" s="25">
         <v>71</v>
       </c>
-      <c r="AI21" s="25">
+      <c r="AJ21" s="25">
         <v>157</v>
       </c>
-      <c r="AJ21" s="25">
+      <c r="AK21" s="25">
         <v>107</v>
       </c>
-      <c r="AK21" s="25">
+      <c r="AL21" s="25">
         <v>25</v>
       </c>
-      <c r="AL21" s="25">
+      <c r="AM21" s="25">
         <v>4</v>
       </c>
-      <c r="AM21" s="25">
+      <c r="AN21" s="25">
         <v>1417</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" s="22">
         <v>156</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="25">
         <v>1716</v>
       </c>
-      <c r="C22" s="25">
+      <c r="D22" s="25">
         <v>1451</v>
-      </c>
-      <c r="D22" s="25">
-        <v>24</v>
       </c>
       <c r="E22" s="25">
         <v>24</v>
       </c>
       <c r="F22" s="25">
+        <v>24</v>
+      </c>
+      <c r="G22" s="25">
         <v>29</v>
       </c>
-      <c r="G22" s="25">
-        <v>0</v>
-      </c>
       <c r="H22" s="25">
+        <v>0</v>
+      </c>
+      <c r="I22" s="25">
         <v>39</v>
       </c>
-      <c r="I22" s="25">
+      <c r="J22" s="25">
         <v>34</v>
       </c>
-      <c r="J22" s="25">
+      <c r="K22" s="25">
         <v>3</v>
       </c>
-      <c r="K22" s="25">
+      <c r="L22" s="25">
         <v>11</v>
       </c>
-      <c r="L22" s="25">
+      <c r="M22" s="25">
         <v>44</v>
       </c>
-      <c r="M22" s="25">
+      <c r="N22" s="25">
         <v>46</v>
       </c>
-      <c r="N22" s="25">
+      <c r="O22" s="25">
         <v>3</v>
       </c>
-      <c r="O22" s="25">
+      <c r="P22" s="25">
         <v>8</v>
       </c>
-      <c r="P22" s="25">
+      <c r="Q22" s="25">
         <v>163</v>
       </c>
-      <c r="Q22" s="25">
+      <c r="R22" s="25">
         <v>459</v>
       </c>
-      <c r="R22" s="25">
+      <c r="S22" s="25">
         <v>56</v>
       </c>
-      <c r="S22" s="25">
+      <c r="T22" s="25">
         <v>400</v>
       </c>
-      <c r="T22" s="25">
-        <v>0</v>
-      </c>
       <c r="U22" s="25">
+        <v>0</v>
+      </c>
+      <c r="V22" s="25">
         <v>410</v>
       </c>
-      <c r="V22" s="25">
+      <c r="W22" s="25">
         <v>250</v>
       </c>
-      <c r="W22" s="25">
-        <v>0</v>
-      </c>
       <c r="X22" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="25">
         <v>195</v>
       </c>
-      <c r="Y22" s="25">
+      <c r="Z22" s="25">
         <v>145</v>
       </c>
-      <c r="Z22" s="25">
+      <c r="AA22" s="25">
         <v>120</v>
       </c>
-      <c r="AA22" s="25">
+      <c r="AB22" s="25">
         <v>310</v>
       </c>
-      <c r="AB22" s="25">
+      <c r="AC22" s="25">
         <v>39</v>
       </c>
-      <c r="AC22" s="25">
+      <c r="AD22" s="25">
         <v>83</v>
       </c>
-      <c r="AD22" s="25">
+      <c r="AE22" s="25">
         <v>283</v>
       </c>
-      <c r="AE22" s="25">
+      <c r="AF22" s="25">
         <v>104</v>
       </c>
-      <c r="AF22" s="25">
+      <c r="AG22" s="25">
         <v>36</v>
       </c>
-      <c r="AG22" s="25">
+      <c r="AH22" s="25">
         <v>2507</v>
       </c>
-      <c r="AH22" s="25">
+      <c r="AI22" s="25">
         <v>76</v>
       </c>
-      <c r="AI22" s="25">
+      <c r="AJ22" s="25">
         <v>94</v>
       </c>
-      <c r="AJ22" s="25">
+      <c r="AK22" s="25">
         <v>39</v>
-      </c>
-      <c r="AK22" s="25">
-        <v>1</v>
       </c>
       <c r="AL22" s="25">
         <v>1</v>
       </c>
       <c r="AM22" s="25">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="25">
         <v>1510</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>157</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="25">
         <v>3698</v>
       </c>
-      <c r="C23" s="25">
+      <c r="D23" s="25">
         <v>2875</v>
       </c>
-      <c r="D23" s="25">
+      <c r="E23" s="25">
         <v>98</v>
       </c>
-      <c r="E23" s="25">
+      <c r="F23" s="25">
         <v>75</v>
       </c>
-      <c r="F23" s="25">
+      <c r="G23" s="25">
         <v>43</v>
       </c>
-      <c r="G23" s="25">
+      <c r="H23" s="25">
         <v>3</v>
       </c>
-      <c r="H23" s="25">
+      <c r="I23" s="25">
         <v>56</v>
       </c>
-      <c r="I23" s="25">
+      <c r="J23" s="25">
         <v>64</v>
       </c>
-      <c r="J23" s="25">
+      <c r="K23" s="25">
         <v>6</v>
       </c>
-      <c r="K23" s="25">
+      <c r="L23" s="25">
         <v>23</v>
       </c>
-      <c r="L23" s="25">
+      <c r="M23" s="25">
         <v>74</v>
       </c>
-      <c r="M23" s="25">
+      <c r="N23" s="25">
         <v>64</v>
       </c>
-      <c r="N23" s="25">
+      <c r="O23" s="25">
         <v>9</v>
       </c>
-      <c r="O23" s="25">
+      <c r="P23" s="25">
         <v>308</v>
       </c>
-      <c r="P23" s="25">
+      <c r="Q23" s="25">
         <v>626</v>
       </c>
-      <c r="Q23" s="25">
+      <c r="R23" s="25">
         <v>914</v>
       </c>
-      <c r="R23" s="25">
+      <c r="S23" s="25">
         <v>149</v>
       </c>
-      <c r="S23" s="25">
+      <c r="T23" s="25">
         <v>875</v>
       </c>
-      <c r="T23" s="25">
-        <v>0</v>
-      </c>
       <c r="U23" s="25">
+        <v>0</v>
+      </c>
+      <c r="V23" s="25">
         <v>750</v>
       </c>
-      <c r="V23" s="25">
+      <c r="W23" s="25">
         <v>535</v>
       </c>
-      <c r="W23" s="25">
+      <c r="X23" s="25">
         <v>165</v>
       </c>
-      <c r="X23" s="25">
+      <c r="Y23" s="25">
         <v>285</v>
       </c>
-      <c r="Y23" s="25">
+      <c r="Z23" s="25">
         <v>225</v>
       </c>
-      <c r="Z23" s="25">
+      <c r="AA23" s="25">
         <v>405</v>
       </c>
-      <c r="AA23" s="25">
+      <c r="AB23" s="25">
         <v>475</v>
       </c>
-      <c r="AB23" s="25">
+      <c r="AC23" s="25">
         <v>53</v>
       </c>
-      <c r="AC23" s="25">
+      <c r="AD23" s="25">
         <v>156</v>
       </c>
-      <c r="AD23" s="25">
+      <c r="AE23" s="25">
         <v>546</v>
       </c>
-      <c r="AE23" s="25">
+      <c r="AF23" s="25">
         <v>305</v>
       </c>
-      <c r="AF23" s="25">
+      <c r="AG23" s="25">
         <v>44</v>
       </c>
-      <c r="AG23" s="25">
+      <c r="AH23" s="25">
         <v>2652</v>
       </c>
-      <c r="AH23" s="25">
+      <c r="AI23" s="25">
         <v>70</v>
       </c>
-      <c r="AI23" s="25">
+      <c r="AJ23" s="25">
         <v>192</v>
       </c>
-      <c r="AJ23" s="25">
+      <c r="AK23" s="25">
         <v>61</v>
       </c>
-      <c r="AK23" s="25">
+      <c r="AL23" s="25">
         <v>1</v>
       </c>
-      <c r="AL23" s="25">
-        <v>0</v>
-      </c>
       <c r="AM23" s="25">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="25">
         <v>1605</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>158</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="25">
         <v>3564</v>
       </c>
-      <c r="C24" s="25">
+      <c r="D24" s="25">
         <v>2679</v>
       </c>
-      <c r="D24" s="25">
+      <c r="E24" s="25">
         <v>131</v>
       </c>
-      <c r="E24" s="25">
+      <c r="F24" s="25">
         <v>60</v>
       </c>
-      <c r="F24" s="25">
+      <c r="G24" s="25">
         <v>86</v>
       </c>
-      <c r="G24" s="25">
+      <c r="H24" s="25">
         <v>4</v>
       </c>
-      <c r="H24" s="25">
+      <c r="I24" s="25">
         <v>77</v>
       </c>
-      <c r="I24" s="25">
+      <c r="J24" s="25">
         <v>141</v>
       </c>
-      <c r="J24" s="25">
+      <c r="K24" s="25">
         <v>16</v>
       </c>
-      <c r="K24" s="25">
+      <c r="L24" s="25">
         <v>36</v>
       </c>
-      <c r="L24" s="25">
+      <c r="M24" s="25">
         <v>172</v>
       </c>
-      <c r="M24" s="25">
+      <c r="N24" s="25">
         <v>97</v>
       </c>
-      <c r="N24" s="25">
+      <c r="O24" s="25">
         <v>19</v>
       </c>
-      <c r="O24" s="25">
+      <c r="P24" s="25">
         <v>46</v>
       </c>
-      <c r="P24" s="25">
+      <c r="Q24" s="25">
         <v>665</v>
       </c>
-      <c r="Q24" s="25">
+      <c r="R24" s="25">
         <v>879</v>
       </c>
-      <c r="R24" s="25">
+      <c r="S24" s="25">
         <v>108</v>
       </c>
-      <c r="S24" s="25">
+      <c r="T24" s="25">
         <v>870</v>
       </c>
-      <c r="T24" s="25">
-        <v>0</v>
-      </c>
       <c r="U24" s="25">
+        <v>0</v>
+      </c>
+      <c r="V24" s="25">
         <v>770</v>
       </c>
-      <c r="V24" s="25">
+      <c r="W24" s="25">
         <v>570</v>
       </c>
-      <c r="W24" s="25">
+      <c r="X24" s="25">
         <v>115</v>
       </c>
-      <c r="X24" s="25">
+      <c r="Y24" s="25">
         <v>205</v>
       </c>
-      <c r="Y24" s="25">
+      <c r="Z24" s="25">
         <v>300</v>
       </c>
-      <c r="Z24" s="25">
+      <c r="AA24" s="25">
         <v>380</v>
       </c>
-      <c r="AA24" s="25">
+      <c r="AB24" s="25">
         <v>565</v>
       </c>
-      <c r="AB24" s="25">
+      <c r="AC24" s="25">
         <v>49</v>
       </c>
-      <c r="AC24" s="25">
+      <c r="AD24" s="25">
         <v>93</v>
       </c>
-      <c r="AD24" s="25">
+      <c r="AE24" s="25">
         <v>557</v>
       </c>
-      <c r="AE24" s="25">
+      <c r="AF24" s="25">
         <v>286</v>
       </c>
-      <c r="AF24" s="25">
+      <c r="AG24" s="25">
         <v>56</v>
       </c>
-      <c r="AG24" s="25">
+      <c r="AH24" s="25">
         <v>2713</v>
       </c>
-      <c r="AH24" s="25">
+      <c r="AI24" s="25">
         <v>63</v>
       </c>
-      <c r="AI24" s="25">
+      <c r="AJ24" s="25">
         <v>174</v>
       </c>
-      <c r="AJ24" s="25">
+      <c r="AK24" s="25">
         <v>69</v>
       </c>
-      <c r="AK24" s="25">
+      <c r="AL24" s="25">
         <v>1</v>
       </c>
-      <c r="AL24" s="25">
-        <v>0</v>
-      </c>
       <c r="AM24" s="25">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="25">
         <v>1443</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>159</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="25">
         <v>2126</v>
       </c>
-      <c r="C25" s="25">
+      <c r="D25" s="25">
         <v>1631</v>
       </c>
-      <c r="D25" s="25">
+      <c r="E25" s="25">
         <v>71</v>
       </c>
-      <c r="E25" s="25">
+      <c r="F25" s="25">
         <v>25</v>
       </c>
-      <c r="F25" s="25">
+      <c r="G25" s="25">
         <v>98</v>
       </c>
-      <c r="G25" s="25">
+      <c r="H25" s="25">
         <v>8</v>
       </c>
-      <c r="H25" s="25">
+      <c r="I25" s="25">
         <v>18</v>
       </c>
-      <c r="I25" s="25">
+      <c r="J25" s="25">
         <v>75</v>
       </c>
-      <c r="J25" s="25">
+      <c r="K25" s="25">
         <v>8</v>
       </c>
-      <c r="K25" s="25">
+      <c r="L25" s="25">
         <v>18</v>
       </c>
-      <c r="L25" s="25">
+      <c r="M25" s="25">
         <v>113</v>
       </c>
-      <c r="M25" s="25">
+      <c r="N25" s="25">
         <v>33</v>
       </c>
-      <c r="N25" s="25">
+      <c r="O25" s="25">
         <v>3</v>
       </c>
-      <c r="O25" s="25">
+      <c r="P25" s="25">
         <v>25</v>
       </c>
-      <c r="P25" s="25">
+      <c r="Q25" s="25">
         <v>559</v>
       </c>
-      <c r="Q25" s="25">
+      <c r="R25" s="25">
         <v>403</v>
       </c>
-      <c r="R25" s="25">
+      <c r="S25" s="25">
         <v>82</v>
       </c>
-      <c r="S25" s="25">
+      <c r="T25" s="25">
         <v>325</v>
       </c>
-      <c r="T25" s="25">
-        <v>0</v>
-      </c>
       <c r="U25" s="25">
+        <v>0</v>
+      </c>
+      <c r="V25" s="25">
         <v>340</v>
       </c>
-      <c r="V25" s="25">
+      <c r="W25" s="25">
         <v>235</v>
       </c>
-      <c r="W25" s="25">
-        <v>0</v>
-      </c>
       <c r="X25" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="25">
         <v>115</v>
       </c>
-      <c r="Y25" s="25">
+      <c r="Z25" s="25">
         <v>200</v>
       </c>
-      <c r="Z25" s="25">
-        <v>0</v>
-      </c>
       <c r="AA25" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="25">
         <v>255</v>
       </c>
-      <c r="AB25" s="25">
+      <c r="AC25" s="25">
         <v>25</v>
       </c>
-      <c r="AC25" s="25">
+      <c r="AD25" s="25">
         <v>81</v>
       </c>
-      <c r="AD25" s="25">
+      <c r="AE25" s="25">
         <v>285</v>
       </c>
-      <c r="AE25" s="25">
+      <c r="AF25" s="25">
         <v>125</v>
       </c>
-      <c r="AF25" s="25">
+      <c r="AG25" s="25">
         <v>25</v>
       </c>
-      <c r="AG25" s="25">
+      <c r="AH25" s="25">
         <v>2520</v>
       </c>
-      <c r="AH25" s="25">
+      <c r="AI25" s="25">
         <v>45</v>
       </c>
-      <c r="AI25" s="25">
+      <c r="AJ25" s="25">
         <v>95</v>
       </c>
-      <c r="AJ25" s="25">
+      <c r="AK25" s="25">
         <v>25</v>
       </c>
-      <c r="AK25" s="25">
+      <c r="AL25" s="25">
         <v>2</v>
       </c>
-      <c r="AL25" s="25">
-        <v>0</v>
-      </c>
       <c r="AM25" s="25">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="25">
         <v>1523</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>160</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="25">
         <v>1705</v>
       </c>
-      <c r="C26" s="25">
+      <c r="D26" s="25">
         <v>1291</v>
       </c>
-      <c r="D26" s="25">
+      <c r="E26" s="25">
         <v>62</v>
       </c>
-      <c r="E26" s="25">
+      <c r="F26" s="25">
         <v>63</v>
       </c>
-      <c r="F26" s="25">
+      <c r="G26" s="25">
         <v>71</v>
       </c>
-      <c r="G26" s="25">
+      <c r="H26" s="25">
         <v>5</v>
       </c>
-      <c r="H26" s="25">
+      <c r="I26" s="25">
         <v>9</v>
       </c>
-      <c r="I26" s="25">
+      <c r="J26" s="25">
         <v>36</v>
       </c>
-      <c r="J26" s="25">
+      <c r="K26" s="25">
         <v>5</v>
       </c>
-      <c r="K26" s="25">
+      <c r="L26" s="25">
         <v>17</v>
       </c>
-      <c r="L26" s="25">
+      <c r="M26" s="25">
         <v>59</v>
       </c>
-      <c r="M26" s="25">
+      <c r="N26" s="25">
         <v>31</v>
       </c>
-      <c r="N26" s="25">
+      <c r="O26" s="25">
         <v>23</v>
       </c>
-      <c r="O26" s="25">
+      <c r="P26" s="25">
         <v>33</v>
       </c>
-      <c r="P26" s="25">
+      <c r="Q26" s="25">
         <v>304</v>
       </c>
-      <c r="Q26" s="25">
+      <c r="R26" s="25">
         <v>450</v>
       </c>
-      <c r="R26" s="25">
+      <c r="S26" s="25">
         <v>47</v>
       </c>
-      <c r="S26" s="25">
+      <c r="T26" s="25">
         <v>400</v>
       </c>
-      <c r="T26" s="25">
-        <v>0</v>
-      </c>
       <c r="U26" s="25">
+        <v>0</v>
+      </c>
+      <c r="V26" s="25">
         <v>370</v>
       </c>
-      <c r="V26" s="25">
+      <c r="W26" s="25">
         <v>225</v>
       </c>
-      <c r="W26" s="25">
-        <v>0</v>
-      </c>
       <c r="X26" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="25">
         <v>180</v>
       </c>
-      <c r="Y26" s="25">
+      <c r="Z26" s="25">
         <v>155</v>
       </c>
-      <c r="Z26" s="25">
+      <c r="AA26" s="25">
         <v>115</v>
       </c>
-      <c r="AA26" s="25">
+      <c r="AB26" s="25">
         <v>245</v>
       </c>
-      <c r="AB26" s="25">
+      <c r="AC26" s="25">
         <v>41</v>
       </c>
-      <c r="AC26" s="25">
+      <c r="AD26" s="25">
         <v>81</v>
       </c>
-      <c r="AD26" s="25">
+      <c r="AE26" s="25">
         <v>225</v>
       </c>
-      <c r="AE26" s="25">
+      <c r="AF26" s="25">
         <v>122</v>
       </c>
-      <c r="AF26" s="25">
+      <c r="AG26" s="25">
         <v>39</v>
       </c>
-      <c r="AG26" s="25">
+      <c r="AH26" s="25">
         <v>2553</v>
       </c>
-      <c r="AH26" s="25">
+      <c r="AI26" s="25">
         <v>51</v>
       </c>
-      <c r="AI26" s="25">
+      <c r="AJ26" s="25">
         <v>77</v>
       </c>
-      <c r="AJ26" s="25">
+      <c r="AK26" s="25">
         <v>38</v>
       </c>
-      <c r="AK26" s="25">
+      <c r="AL26" s="25">
         <v>4</v>
       </c>
-      <c r="AL26" s="25">
+      <c r="AM26" s="25">
         <v>1</v>
       </c>
-      <c r="AM26" s="25">
+      <c r="AN26" s="25">
         <v>1453</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uI1vipgom97eGO5Sbeaojv8MvYOhUYpJ6fTa9DULfHCX3t0kymTmLrLCw/DFs0Cm/Bx5axxJynOswXk1wQXjNQ==" saltValue="I1Na8aIv27nHV+TeCSEXnw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AN6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" style="25" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="25"/>
+    <col min="1" max="2" width="18.5" style="25" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="23" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" s="23" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="J1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="L1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="O1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="P1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="Q1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="R1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="S1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="T1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="U1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="V1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="W1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="X1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="Y1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Z1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="AA1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AB1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AC1" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AD1" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="AD1" s="28" t="s">
+      <c r="AE1" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AF1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AG1" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AH1" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="AH1" s="28" t="s">
+      <c r="AI1" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="AI1" s="28" t="s">
+      <c r="AJ1" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="AJ1" s="28" t="s">
+      <c r="AK1" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="AK1" s="28" t="s">
+      <c r="AL1" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="AL1" s="28" t="s">
+      <c r="AM1" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="AM1" s="28" t="s">
+      <c r="AN1" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="22">
         <v>161</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25">
         <v>8727</v>
       </c>
-      <c r="C2" s="25">
+      <c r="D2" s="25">
         <v>7169</v>
       </c>
-      <c r="D2" s="25">
+      <c r="E2" s="25">
         <v>336</v>
       </c>
-      <c r="E2" s="25">
+      <c r="F2" s="25">
         <v>112</v>
       </c>
-      <c r="F2" s="25">
+      <c r="G2" s="25">
         <v>93</v>
       </c>
-      <c r="G2" s="25">
+      <c r="H2" s="25">
         <v>6</v>
       </c>
-      <c r="H2" s="25">
+      <c r="I2" s="25">
         <v>173</v>
       </c>
-      <c r="I2" s="25">
+      <c r="J2" s="25">
         <v>195</v>
       </c>
-      <c r="J2" s="25">
+      <c r="K2" s="25">
         <v>14</v>
       </c>
-      <c r="K2" s="25">
+      <c r="L2" s="25">
         <v>51</v>
       </c>
-      <c r="L2" s="25">
+      <c r="M2" s="25">
         <v>213</v>
       </c>
-      <c r="M2" s="25">
+      <c r="N2" s="25">
         <v>178</v>
       </c>
-      <c r="N2" s="25">
+      <c r="O2" s="25">
         <v>25</v>
       </c>
-      <c r="O2" s="25">
+      <c r="P2" s="25">
         <v>162</v>
       </c>
-      <c r="P2" s="30">
+      <c r="Q2" s="30">
         <v>1406</v>
       </c>
-      <c r="Q2" s="25">
+      <c r="R2" s="25">
         <v>2248</v>
       </c>
-      <c r="R2" s="25">
+      <c r="S2" s="25">
         <v>337</v>
       </c>
-      <c r="S2" s="30">
+      <c r="T2" s="30">
         <v>1870</v>
       </c>
-      <c r="T2" s="25">
+      <c r="U2" s="25">
         <v>305</v>
       </c>
-      <c r="U2" s="25">
+      <c r="V2" s="25">
         <v>1870</v>
       </c>
-      <c r="V2" s="25">
+      <c r="W2" s="25">
         <v>1065</v>
       </c>
-      <c r="W2" s="25">
+      <c r="X2" s="25">
         <v>390</v>
       </c>
-      <c r="X2" s="25">
+      <c r="Y2" s="25">
         <v>905</v>
       </c>
-      <c r="Y2" s="25">
+      <c r="Z2" s="25">
         <v>900</v>
       </c>
-      <c r="Z2" s="25">
+      <c r="AA2" s="25">
         <v>455</v>
       </c>
-      <c r="AA2" s="25">
+      <c r="AB2" s="25">
         <v>1205</v>
       </c>
-      <c r="AB2" s="25">
+      <c r="AC2" s="25">
         <v>178</v>
       </c>
-      <c r="AC2" s="25">
+      <c r="AD2" s="25">
         <v>410</v>
       </c>
-      <c r="AD2" s="25">
+      <c r="AE2" s="25">
         <v>1182</v>
       </c>
-      <c r="AE2" s="25">
+      <c r="AF2" s="25">
         <v>568</v>
       </c>
-      <c r="AF2" s="25">
+      <c r="AG2" s="25">
         <v>186</v>
       </c>
-      <c r="AG2" s="25">
+      <c r="AH2" s="25">
         <v>2557</v>
       </c>
-      <c r="AH2" s="25">
+      <c r="AI2" s="25">
         <v>257</v>
       </c>
-      <c r="AI2" s="25">
+      <c r="AJ2" s="25">
         <v>465</v>
       </c>
-      <c r="AJ2" s="25">
+      <c r="AK2" s="25">
         <v>149</v>
       </c>
-      <c r="AK2" s="25">
+      <c r="AL2" s="25">
         <v>8</v>
       </c>
-      <c r="AL2" s="25">
+      <c r="AM2" s="25">
         <v>2</v>
       </c>
-      <c r="AM2" s="25">
+      <c r="AN2" s="25">
         <v>1453</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="24"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B3" s="24"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="24"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B4" s="24"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="24"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B5" s="24"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="k1ad3pdZJkcmu7AKlnNSfq+z8A+ahbGwTnGvqXM00hVJX1n35GcV3LNbRC0evxLUbULy00Ia5i3VOL8mvc2DDA==" saltValue="r4cR0uQSxS0NPEpe3vyfwA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AN7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" style="25" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="25"/>
+    <col min="1" max="2" width="18.5" style="25" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="23" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" s="23" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="J1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="L1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="O1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="P1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="Q1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="R1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="S1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="T1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="U1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="V1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="W1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="X1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="Y1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Z1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="AA1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AB1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AC1" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AD1" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="AD1" s="28" t="s">
+      <c r="AE1" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AF1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AG1" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AH1" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="AH1" s="28" t="s">
+      <c r="AI1" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="AI1" s="28" t="s">
+      <c r="AJ1" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="AJ1" s="28" t="s">
+      <c r="AK1" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="AK1" s="28" t="s">
+      <c r="AL1" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="AL1" s="28" t="s">
+      <c r="AM1" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="AM1" s="28" t="s">
+      <c r="AN1" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="22">
         <v>162</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25">
         <v>2265</v>
       </c>
-      <c r="C2" s="25">
+      <c r="D2" s="25">
         <v>1781</v>
       </c>
-      <c r="D2" s="25">
+      <c r="E2" s="25">
         <v>93</v>
       </c>
-      <c r="E2" s="25">
+      <c r="F2" s="25">
         <v>44</v>
       </c>
-      <c r="F2" s="25">
+      <c r="G2" s="25">
         <v>59</v>
       </c>
-      <c r="G2" s="25">
-        <v>0</v>
-      </c>
       <c r="H2" s="25">
+        <v>0</v>
+      </c>
+      <c r="I2" s="25">
         <v>29</v>
       </c>
-      <c r="I2" s="25">
+      <c r="J2" s="25">
         <v>43</v>
       </c>
-      <c r="J2" s="25">
+      <c r="K2" s="25">
         <v>7</v>
       </c>
-      <c r="K2" s="25">
+      <c r="L2" s="25">
         <v>12</v>
       </c>
-      <c r="L2" s="25">
+      <c r="M2" s="25">
         <v>140</v>
       </c>
-      <c r="M2" s="25">
+      <c r="N2" s="25">
         <v>39</v>
       </c>
-      <c r="N2" s="25">
+      <c r="O2" s="25">
         <v>11</v>
       </c>
-      <c r="O2" s="25">
+      <c r="P2" s="25">
         <v>7</v>
       </c>
-      <c r="P2" s="25">
+      <c r="Q2" s="25">
         <v>464</v>
       </c>
-      <c r="Q2" s="25">
+      <c r="R2" s="25">
         <v>572</v>
       </c>
-      <c r="R2" s="25">
+      <c r="S2" s="25">
         <v>105</v>
       </c>
-      <c r="S2" s="25">
+      <c r="T2" s="25">
         <v>465</v>
       </c>
-      <c r="T2" s="25">
-        <v>0</v>
-      </c>
       <c r="U2" s="25">
+        <v>0</v>
+      </c>
+      <c r="V2" s="25">
         <v>460</v>
       </c>
-      <c r="V2" s="25">
+      <c r="W2" s="25">
         <v>255</v>
       </c>
-      <c r="W2" s="25">
+      <c r="X2" s="25">
         <v>100</v>
       </c>
-      <c r="X2" s="25">
+      <c r="Y2" s="25">
         <v>240</v>
       </c>
-      <c r="Y2" s="25">
+      <c r="Z2" s="25">
         <v>220</v>
       </c>
-      <c r="Z2" s="25">
+      <c r="AA2" s="25">
         <v>100</v>
       </c>
-      <c r="AA2" s="25">
+      <c r="AB2" s="25">
         <v>245</v>
       </c>
-      <c r="AB2" s="25">
+      <c r="AC2" s="25">
         <v>43</v>
       </c>
-      <c r="AC2" s="25">
+      <c r="AD2" s="25">
         <v>101</v>
       </c>
-      <c r="AD2" s="25">
+      <c r="AE2" s="25">
         <v>379</v>
       </c>
-      <c r="AE2" s="25">
+      <c r="AF2" s="25">
         <v>191</v>
       </c>
-      <c r="AF2" s="25">
+      <c r="AG2" s="25">
         <v>29</v>
       </c>
-      <c r="AG2" s="25">
+      <c r="AH2" s="25">
         <v>2626</v>
       </c>
-      <c r="AH2" s="25">
+      <c r="AI2" s="25">
         <v>58</v>
       </c>
-      <c r="AI2" s="25">
+      <c r="AJ2" s="25">
         <v>152</v>
       </c>
-      <c r="AJ2" s="25">
+      <c r="AK2" s="25">
         <v>45</v>
       </c>
-      <c r="AK2" s="25">
+      <c r="AL2" s="25">
         <v>1</v>
       </c>
-      <c r="AL2" s="25">
-        <v>0</v>
-      </c>
       <c r="AM2" s="25">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="25">
         <v>1534</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="22">
         <v>163</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="25">
         <v>2011</v>
       </c>
-      <c r="C3" s="25">
+      <c r="D3" s="25">
         <v>911</v>
       </c>
-      <c r="D3" s="25">
+      <c r="E3" s="25">
         <v>116</v>
       </c>
-      <c r="E3" s="25">
+      <c r="F3" s="25">
         <v>22</v>
       </c>
-      <c r="F3" s="25">
+      <c r="G3" s="25">
         <v>55</v>
       </c>
-      <c r="G3" s="25">
+      <c r="H3" s="25">
         <v>6</v>
       </c>
-      <c r="H3" s="25">
+      <c r="I3" s="25">
         <v>17</v>
       </c>
-      <c r="I3" s="25">
+      <c r="J3" s="25">
         <v>230</v>
       </c>
-      <c r="J3" s="25">
+      <c r="K3" s="25">
         <v>41</v>
       </c>
-      <c r="K3" s="25">
+      <c r="L3" s="25">
         <v>13</v>
       </c>
-      <c r="L3" s="25">
+      <c r="M3" s="25">
         <v>416</v>
       </c>
-      <c r="M3" s="25">
+      <c r="N3" s="25">
         <v>113</v>
       </c>
-      <c r="N3" s="25">
+      <c r="O3" s="25">
         <v>10</v>
       </c>
-      <c r="O3" s="25">
+      <c r="P3" s="25">
         <v>61</v>
       </c>
-      <c r="P3" s="25">
+      <c r="Q3" s="25">
         <v>715</v>
       </c>
-      <c r="Q3" s="25">
+      <c r="R3" s="25">
         <v>423</v>
       </c>
-      <c r="R3" s="25">
+      <c r="S3" s="25">
         <v>157</v>
       </c>
-      <c r="S3" s="25">
+      <c r="T3" s="25">
         <v>225</v>
       </c>
-      <c r="T3" s="25">
-        <v>0</v>
-      </c>
       <c r="U3" s="25">
+        <v>0</v>
+      </c>
+      <c r="V3" s="25">
         <v>300</v>
       </c>
-      <c r="V3" s="25">
+      <c r="W3" s="25">
         <v>155</v>
       </c>
-      <c r="W3" s="25">
+      <c r="X3" s="25">
         <v>125</v>
       </c>
-      <c r="X3" s="25">
+      <c r="Y3" s="25">
         <v>195</v>
       </c>
-      <c r="Y3" s="25">
+      <c r="Z3" s="25">
         <v>130</v>
       </c>
-      <c r="Z3" s="25">
+      <c r="AA3" s="25">
         <v>100</v>
       </c>
-      <c r="AA3" s="25">
+      <c r="AB3" s="25">
         <v>185</v>
       </c>
-      <c r="AB3" s="25">
+      <c r="AC3" s="25">
         <v>56</v>
       </c>
-      <c r="AC3" s="25">
+      <c r="AD3" s="25">
         <v>144</v>
       </c>
-      <c r="AD3" s="25">
+      <c r="AE3" s="25">
         <v>413</v>
       </c>
-      <c r="AE3" s="25">
+      <c r="AF3" s="25">
         <v>107</v>
       </c>
-      <c r="AF3" s="25">
+      <c r="AG3" s="25">
         <v>14</v>
       </c>
-      <c r="AG3" s="25">
+      <c r="AH3" s="25">
         <v>2424</v>
       </c>
-      <c r="AH3" s="25">
+      <c r="AI3" s="25">
         <v>68</v>
       </c>
-      <c r="AI3" s="25">
+      <c r="AJ3" s="25">
         <v>133</v>
       </c>
-      <c r="AJ3" s="25">
+      <c r="AK3" s="25">
         <v>22</v>
       </c>
-      <c r="AK3" s="25">
-        <v>0</v>
-      </c>
       <c r="AL3" s="25">
         <v>0</v>
       </c>
       <c r="AM3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="25">
         <v>1449</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
         <v>164</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="25">
         <v>1608</v>
       </c>
-      <c r="C4" s="25">
+      <c r="D4" s="25">
         <v>893</v>
       </c>
-      <c r="D4" s="25">
+      <c r="E4" s="25">
         <v>243</v>
       </c>
-      <c r="E4" s="25">
+      <c r="F4" s="25">
         <v>34</v>
       </c>
-      <c r="F4" s="25">
+      <c r="G4" s="25">
         <v>42</v>
       </c>
-      <c r="G4" s="25">
+      <c r="H4" s="25">
         <v>22</v>
       </c>
-      <c r="H4" s="25">
+      <c r="I4" s="25">
         <v>13</v>
       </c>
-      <c r="I4" s="25">
+      <c r="J4" s="25">
         <v>52</v>
       </c>
-      <c r="J4" s="25">
+      <c r="K4" s="25">
         <v>18</v>
       </c>
-      <c r="K4" s="25">
+      <c r="L4" s="25">
         <v>29</v>
       </c>
-      <c r="L4" s="25">
+      <c r="M4" s="25">
         <v>52</v>
       </c>
-      <c r="M4" s="25">
+      <c r="N4" s="25">
         <v>169</v>
       </c>
-      <c r="N4" s="25">
+      <c r="O4" s="25">
         <v>3</v>
       </c>
-      <c r="O4" s="25">
+      <c r="P4" s="25">
         <v>38</v>
       </c>
-      <c r="P4" s="25">
+      <c r="Q4" s="25">
         <v>552</v>
       </c>
-      <c r="Q4" s="25" t="s">
+      <c r="R4" s="25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="22">
         <v>165</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="25">
         <v>5310</v>
       </c>
-      <c r="C5" s="25">
+      <c r="D5" s="25">
         <v>4067</v>
       </c>
-      <c r="D5" s="25">
+      <c r="E5" s="25">
         <v>231</v>
       </c>
-      <c r="E5" s="25">
+      <c r="F5" s="25">
         <v>72</v>
       </c>
-      <c r="F5" s="25">
+      <c r="G5" s="25">
         <v>104</v>
       </c>
-      <c r="G5" s="25">
+      <c r="H5" s="25">
         <v>25</v>
       </c>
-      <c r="H5" s="25">
+      <c r="I5" s="25">
         <v>62</v>
       </c>
-      <c r="I5" s="25">
+      <c r="J5" s="25">
         <v>208</v>
       </c>
-      <c r="J5" s="25">
+      <c r="K5" s="25">
         <v>27</v>
       </c>
-      <c r="K5" s="25">
+      <c r="L5" s="25">
         <v>31</v>
       </c>
-      <c r="L5" s="25">
+      <c r="M5" s="25">
         <v>181</v>
       </c>
-      <c r="M5" s="25">
+      <c r="N5" s="25">
         <v>163</v>
       </c>
-      <c r="N5" s="25">
+      <c r="O5" s="25">
         <v>37</v>
       </c>
-      <c r="O5" s="25">
+      <c r="P5" s="25">
         <v>102</v>
       </c>
-      <c r="P5" s="25">
+      <c r="Q5" s="25">
         <v>960</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="R5" s="25">
         <v>1357</v>
       </c>
-      <c r="R5" s="25">
+      <c r="S5" s="25">
         <v>262</v>
       </c>
-      <c r="S5" s="25">
+      <c r="T5" s="25">
         <v>985</v>
       </c>
-      <c r="T5" s="25">
+      <c r="U5" s="25">
         <v>275</v>
       </c>
-      <c r="U5" s="25">
+      <c r="V5" s="25">
         <v>1030</v>
       </c>
-      <c r="V5" s="25">
+      <c r="W5" s="25">
         <v>445</v>
       </c>
-      <c r="W5" s="25">
+      <c r="X5" s="25">
         <v>335</v>
       </c>
-      <c r="X5" s="25">
+      <c r="Y5" s="25">
         <v>850</v>
       </c>
-      <c r="Y5" s="25">
+      <c r="Z5" s="25">
         <v>310</v>
       </c>
-      <c r="Z5" s="25">
+      <c r="AA5" s="25">
         <v>205</v>
       </c>
-      <c r="AA5" s="25">
+      <c r="AB5" s="25">
         <v>675</v>
       </c>
-      <c r="AB5" s="25">
+      <c r="AC5" s="25">
         <v>111</v>
       </c>
-      <c r="AC5" s="25">
+      <c r="AD5" s="25">
         <v>204</v>
       </c>
-      <c r="AD5" s="25">
+      <c r="AE5" s="25">
         <v>832</v>
       </c>
-      <c r="AE5" s="25">
+      <c r="AF5" s="25">
         <v>455</v>
       </c>
-      <c r="AF5" s="25">
+      <c r="AG5" s="25">
         <v>111</v>
       </c>
-      <c r="AG5" s="25">
+      <c r="AH5" s="25">
         <v>2688</v>
       </c>
-      <c r="AH5" s="25">
+      <c r="AI5" s="25">
         <v>162</v>
       </c>
-      <c r="AI5" s="25">
+      <c r="AJ5" s="25">
         <v>358</v>
       </c>
-      <c r="AJ5" s="25">
+      <c r="AK5" s="25">
         <v>124</v>
       </c>
-      <c r="AK5" s="25">
+      <c r="AL5" s="25">
         <v>16</v>
       </c>
-      <c r="AL5" s="25">
+      <c r="AM5" s="25">
         <v>1</v>
       </c>
-      <c r="AM5" s="25">
+      <c r="AN5" s="25">
         <v>1587</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="24"/>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B6" s="24"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AN6"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" style="25" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="25"/>
+    <col min="1" max="2" width="18.5" style="25" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="23" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" s="23" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="J1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="L1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="O1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="P1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="Q1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="R1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="S1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="T1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="U1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="V1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="W1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="X1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="Y1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Z1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="AA1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AB1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AC1" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AD1" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="AD1" s="28" t="s">
+      <c r="AE1" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AF1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AG1" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AH1" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="AH1" s="28" t="s">
+      <c r="AI1" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="AI1" s="28" t="s">
+      <c r="AJ1" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="AJ1" s="28" t="s">
+      <c r="AK1" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="AK1" s="28" t="s">
+      <c r="AL1" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="AL1" s="28" t="s">
+      <c r="AM1" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="AM1" s="28" t="s">
+      <c r="AN1" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="22">
         <v>166</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25">
         <v>1929</v>
       </c>
-      <c r="C2" s="25">
+      <c r="D2" s="25">
         <v>1546</v>
       </c>
-      <c r="D2" s="25">
+      <c r="E2" s="25">
         <v>67</v>
       </c>
-      <c r="E2" s="25">
+      <c r="F2" s="25">
         <v>20</v>
       </c>
-      <c r="F2" s="25">
+      <c r="G2" s="25">
         <v>149</v>
       </c>
-      <c r="G2" s="25">
-        <v>0</v>
-      </c>
       <c r="H2" s="25">
+        <v>0</v>
+      </c>
+      <c r="I2" s="25">
         <v>11</v>
       </c>
-      <c r="I2" s="25">
+      <c r="J2" s="25">
         <v>25</v>
       </c>
-      <c r="J2" s="25">
+      <c r="K2" s="25">
         <v>2</v>
       </c>
-      <c r="K2" s="25">
+      <c r="L2" s="25">
         <v>7</v>
       </c>
-      <c r="L2" s="25">
+      <c r="M2" s="25">
         <v>32</v>
       </c>
-      <c r="M2" s="25">
+      <c r="N2" s="25">
         <v>29</v>
       </c>
-      <c r="N2" s="25">
+      <c r="O2" s="25">
         <v>9</v>
       </c>
-      <c r="O2" s="25">
+      <c r="P2" s="25">
         <v>32</v>
       </c>
-      <c r="P2" s="25">
+      <c r="Q2" s="25">
         <v>451</v>
       </c>
-      <c r="Q2" s="25">
+      <c r="R2" s="25">
         <v>459</v>
       </c>
-      <c r="R2" s="25">
+      <c r="S2" s="25">
         <v>79</v>
       </c>
-      <c r="S2" s="25">
+      <c r="T2" s="25">
         <v>425</v>
       </c>
-      <c r="T2" s="25">
-        <v>0</v>
-      </c>
       <c r="U2" s="25">
+        <v>0</v>
+      </c>
+      <c r="V2" s="25">
         <v>385</v>
       </c>
-      <c r="V2" s="25">
+      <c r="W2" s="25">
         <v>215</v>
       </c>
-      <c r="W2" s="25">
-        <v>0</v>
-      </c>
       <c r="X2" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="25">
         <v>200</v>
       </c>
-      <c r="Y2" s="25">
+      <c r="Z2" s="25">
         <v>155</v>
       </c>
-      <c r="Z2" s="25">
+      <c r="AA2" s="25">
         <v>105</v>
       </c>
-      <c r="AA2" s="25">
+      <c r="AB2" s="25">
         <v>205</v>
       </c>
-      <c r="AB2" s="25">
+      <c r="AC2" s="25">
         <v>40</v>
       </c>
-      <c r="AC2" s="25">
+      <c r="AD2" s="25">
         <v>89</v>
       </c>
-      <c r="AD2" s="25">
+      <c r="AE2" s="25">
         <v>355</v>
       </c>
-      <c r="AE2" s="25">
+      <c r="AF2" s="25">
         <v>101</v>
       </c>
-      <c r="AF2" s="25">
+      <c r="AG2" s="25">
         <v>14</v>
       </c>
-      <c r="AG2" s="25">
+      <c r="AH2" s="25">
         <v>2434</v>
       </c>
-      <c r="AH2" s="25">
+      <c r="AI2" s="25">
         <v>59</v>
       </c>
-      <c r="AI2" s="25">
+      <c r="AJ2" s="25">
         <v>129</v>
       </c>
-      <c r="AJ2" s="25">
+      <c r="AK2" s="25">
         <v>26</v>
       </c>
-      <c r="AK2" s="25">
-        <v>0</v>
-      </c>
       <c r="AL2" s="25">
         <v>0</v>
       </c>
       <c r="AM2" s="25">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="25">
         <v>1480</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="22">
         <v>167</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="25">
         <v>3387</v>
       </c>
-      <c r="C3" s="25">
+      <c r="D3" s="25">
         <v>2709</v>
       </c>
-      <c r="D3" s="25">
+      <c r="E3" s="25">
         <v>121</v>
       </c>
-      <c r="E3" s="25">
+      <c r="F3" s="25">
         <v>74</v>
       </c>
-      <c r="F3" s="25">
+      <c r="G3" s="25">
         <v>53</v>
       </c>
-      <c r="G3" s="25">
+      <c r="H3" s="25">
         <v>4</v>
       </c>
-      <c r="H3" s="25">
+      <c r="I3" s="25">
         <v>34</v>
       </c>
-      <c r="I3" s="25">
+      <c r="J3" s="25">
         <v>130</v>
       </c>
-      <c r="J3" s="25">
+      <c r="K3" s="25">
         <v>8</v>
       </c>
-      <c r="K3" s="25">
+      <c r="L3" s="25">
         <v>16</v>
       </c>
-      <c r="L3" s="25">
+      <c r="M3" s="25">
         <v>110</v>
       </c>
-      <c r="M3" s="25">
+      <c r="N3" s="25">
         <v>88</v>
       </c>
-      <c r="N3" s="25">
-        <v>0</v>
-      </c>
       <c r="O3" s="25">
+        <v>0</v>
+      </c>
+      <c r="P3" s="25">
         <v>40</v>
       </c>
-      <c r="P3" s="25">
+      <c r="Q3" s="25">
         <v>640</v>
       </c>
-      <c r="Q3" s="25">
+      <c r="R3" s="25">
         <v>889</v>
       </c>
-      <c r="R3" s="25">
+      <c r="S3" s="25">
         <v>126</v>
       </c>
-      <c r="S3" s="25">
+      <c r="T3" s="25">
         <v>705</v>
       </c>
-      <c r="T3" s="25">
+      <c r="U3" s="25">
         <v>145</v>
       </c>
-      <c r="U3" s="25">
+      <c r="V3" s="25">
         <v>695</v>
       </c>
-      <c r="V3" s="25">
+      <c r="W3" s="25">
         <v>380</v>
       </c>
-      <c r="W3" s="25">
+      <c r="X3" s="25">
         <v>195</v>
       </c>
-      <c r="X3" s="25">
+      <c r="Y3" s="25">
         <v>440</v>
       </c>
-      <c r="Y3" s="25">
+      <c r="Z3" s="25">
         <v>235</v>
       </c>
-      <c r="Z3" s="25">
+      <c r="AA3" s="25">
         <v>215</v>
       </c>
-      <c r="AA3" s="25">
+      <c r="AB3" s="25">
         <v>435</v>
       </c>
-      <c r="AB3" s="25">
+      <c r="AC3" s="25">
         <v>40</v>
       </c>
-      <c r="AC3" s="25">
+      <c r="AD3" s="25">
         <v>106</v>
       </c>
-      <c r="AD3" s="25">
+      <c r="AE3" s="25">
         <v>517</v>
       </c>
-      <c r="AE3" s="25">
+      <c r="AF3" s="25">
         <v>262</v>
       </c>
-      <c r="AF3" s="25">
+      <c r="AG3" s="25">
         <v>79</v>
       </c>
-      <c r="AG3" s="25">
+      <c r="AH3" s="25">
         <v>2726</v>
       </c>
-      <c r="AH3" s="25">
+      <c r="AI3" s="25">
         <v>99</v>
       </c>
-      <c r="AI3" s="25">
+      <c r="AJ3" s="25">
         <v>192</v>
       </c>
-      <c r="AJ3" s="25">
+      <c r="AK3" s="25">
         <v>81</v>
       </c>
-      <c r="AK3" s="25">
+      <c r="AL3" s="25">
         <v>9</v>
       </c>
-      <c r="AL3" s="25">
+      <c r="AM3" s="25">
         <v>1</v>
       </c>
-      <c r="AM3" s="25">
+      <c r="AN3" s="25">
         <v>1580</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
         <v>168</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="25">
         <v>3988</v>
       </c>
-      <c r="C4" s="25">
+      <c r="D4" s="25">
         <v>3270</v>
       </c>
-      <c r="D4" s="25">
+      <c r="E4" s="25">
         <v>120</v>
       </c>
-      <c r="E4" s="25">
+      <c r="F4" s="25">
         <v>92</v>
       </c>
-      <c r="F4" s="25">
+      <c r="G4" s="25">
         <v>76</v>
       </c>
-      <c r="G4" s="25">
+      <c r="H4" s="25">
         <v>22</v>
       </c>
-      <c r="H4" s="25">
+      <c r="I4" s="25">
         <v>79</v>
       </c>
-      <c r="I4" s="25">
+      <c r="J4" s="25">
         <v>41</v>
       </c>
-      <c r="J4" s="25">
+      <c r="K4" s="25">
         <v>14</v>
       </c>
-      <c r="K4" s="25">
+      <c r="L4" s="25">
         <v>30</v>
       </c>
-      <c r="L4" s="25">
+      <c r="M4" s="25">
         <v>40</v>
       </c>
-      <c r="M4" s="25">
+      <c r="N4" s="25">
         <v>136</v>
       </c>
-      <c r="N4" s="25">
+      <c r="O4" s="25">
         <v>48</v>
       </c>
-      <c r="O4" s="25">
+      <c r="P4" s="25">
         <v>20</v>
       </c>
-      <c r="P4" s="25">
+      <c r="Q4" s="25">
         <v>743</v>
       </c>
-      <c r="Q4" s="25">
+      <c r="R4" s="25">
         <v>1137</v>
       </c>
-      <c r="R4" s="25">
+      <c r="S4" s="25">
         <v>174</v>
       </c>
-      <c r="S4" s="25">
+      <c r="T4" s="25">
         <v>635</v>
       </c>
-      <c r="T4" s="25">
+      <c r="U4" s="25">
         <v>415</v>
       </c>
-      <c r="U4" s="25">
+      <c r="V4" s="25">
         <v>640</v>
       </c>
-      <c r="V4" s="25">
+      <c r="W4" s="25">
         <v>330</v>
       </c>
-      <c r="W4" s="25">
+      <c r="X4" s="25">
         <v>495</v>
       </c>
-      <c r="X4" s="25">
+      <c r="Y4" s="25">
         <v>480</v>
       </c>
-      <c r="Y4" s="25">
+      <c r="Z4" s="25">
         <v>270</v>
       </c>
-      <c r="Z4" s="25">
+      <c r="AA4" s="25">
         <v>385</v>
       </c>
-      <c r="AA4" s="25">
+      <c r="AB4" s="25">
         <v>730</v>
       </c>
-      <c r="AB4" s="25">
+      <c r="AC4" s="25">
         <v>105</v>
       </c>
-      <c r="AC4" s="25">
+      <c r="AD4" s="25">
         <v>149</v>
       </c>
-      <c r="AD4" s="25">
+      <c r="AE4" s="25">
         <v>504</v>
       </c>
-      <c r="AE4" s="25">
+      <c r="AF4" s="25">
         <v>286</v>
       </c>
-      <c r="AF4" s="25">
+      <c r="AG4" s="25">
         <v>177</v>
       </c>
-      <c r="AG4" s="25">
+      <c r="AH4" s="25">
         <v>2752</v>
       </c>
-      <c r="AH4" s="25">
+      <c r="AI4" s="25">
         <v>132</v>
       </c>
-      <c r="AI4" s="25">
+      <c r="AJ4" s="25">
         <v>268</v>
       </c>
-      <c r="AJ4" s="25">
+      <c r="AK4" s="25">
         <v>147</v>
       </c>
-      <c r="AK4" s="25">
+      <c r="AL4" s="25">
         <v>9</v>
       </c>
-      <c r="AL4" s="25">
+      <c r="AM4" s="25">
         <v>2</v>
       </c>
-      <c r="AM4" s="25">
+      <c r="AN4" s="25">
         <v>1640</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="22">
         <v>169</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="25">
         <v>2038</v>
       </c>
-      <c r="C5" s="25">
+      <c r="D5" s="25">
         <v>1759</v>
       </c>
-      <c r="D5" s="25">
+      <c r="E5" s="25">
         <v>41</v>
       </c>
-      <c r="E5" s="25">
+      <c r="F5" s="25">
         <v>52</v>
       </c>
-      <c r="F5" s="25">
+      <c r="G5" s="25">
         <v>30</v>
       </c>
-      <c r="G5" s="25">
+      <c r="H5" s="25">
         <v>6</v>
       </c>
-      <c r="H5" s="25">
+      <c r="I5" s="25">
         <v>28</v>
       </c>
-      <c r="I5" s="25">
+      <c r="J5" s="25">
         <v>48</v>
       </c>
-      <c r="J5" s="25">
+      <c r="K5" s="25">
         <v>13</v>
       </c>
-      <c r="K5" s="25">
+      <c r="L5" s="25">
         <v>15</v>
       </c>
-      <c r="L5" s="25">
+      <c r="M5" s="25">
         <v>20</v>
       </c>
-      <c r="M5" s="25">
+      <c r="N5" s="25">
         <v>13</v>
       </c>
-      <c r="N5" s="25">
+      <c r="O5" s="25">
         <v>4</v>
       </c>
-      <c r="O5" s="25">
+      <c r="P5" s="25">
         <v>9</v>
       </c>
-      <c r="P5" s="25">
+      <c r="Q5" s="25">
         <v>333</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="R5" s="25">
         <v>531</v>
       </c>
-      <c r="R5" s="25">
+      <c r="S5" s="25">
         <v>107</v>
       </c>
-      <c r="S5" s="25">
+      <c r="T5" s="25">
         <v>435</v>
       </c>
-      <c r="T5" s="25">
-        <v>0</v>
-      </c>
       <c r="U5" s="25">
+        <v>0</v>
+      </c>
+      <c r="V5" s="25">
         <v>410</v>
       </c>
-      <c r="V5" s="25">
+      <c r="W5" s="25">
         <v>235</v>
       </c>
-      <c r="W5" s="25">
+      <c r="X5" s="25">
         <v>120</v>
       </c>
-      <c r="X5" s="25">
+      <c r="Y5" s="25">
         <v>300</v>
       </c>
-      <c r="Y5" s="25">
+      <c r="Z5" s="25">
         <v>180</v>
       </c>
-      <c r="Z5" s="25">
-        <v>0</v>
-      </c>
       <c r="AA5" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="25">
         <v>370</v>
       </c>
-      <c r="AB5" s="25">
+      <c r="AC5" s="25">
         <v>27</v>
       </c>
-      <c r="AC5" s="25">
+      <c r="AD5" s="25">
         <v>72</v>
       </c>
-      <c r="AD5" s="25">
+      <c r="AE5" s="25">
         <v>223</v>
       </c>
-      <c r="AE5" s="25">
+      <c r="AF5" s="25">
         <v>149</v>
       </c>
-      <c r="AF5" s="25">
+      <c r="AG5" s="25">
         <v>110</v>
       </c>
-      <c r="AG5" s="25">
+      <c r="AH5" s="25">
         <v>2888</v>
       </c>
-      <c r="AH5" s="25">
+      <c r="AI5" s="25">
         <v>41</v>
       </c>
-      <c r="AI5" s="25">
+      <c r="AJ5" s="25">
         <v>131</v>
       </c>
-      <c r="AJ5" s="25">
+      <c r="AK5" s="25">
         <v>57</v>
       </c>
-      <c r="AK5" s="25">
+      <c r="AL5" s="25">
         <v>12</v>
       </c>
-      <c r="AL5" s="25">
+      <c r="AM5" s="25">
         <v>2</v>
       </c>
-      <c r="AM5" s="25">
+      <c r="AN5" s="25">
         <v>1662</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YmIPTt8j5Z2dGCWGzyLkWmuMHxYy4hIeEXh92ncphX3fiVhOPs7yJ5yd5BM51E/mARVf+akGByKQbqR7MUGPYA==" saltValue="GosTqEdTYvuRNfN1e9erCA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="21" width="18.44140625" customWidth="1"/>
+    <col min="1" max="21" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
@@ -5551,19 +5677,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="24" width="18.44140625" customWidth="1"/>
+    <col min="1" max="24" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>36</v>
       </c>
@@ -5606,19 +5732,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="24" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="17" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>52</v>
       </c>
